--- a/Género/Panamá/Lista Corregimientos.xlsx
+++ b/Género/Panamá/Lista Corregimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\Género\Panamá\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628B1FD2-A8AB-4783-8681-76BAAE6CFE51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E664168E-CDCB-4828-A0D3-13553CA31CA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4266C349-B338-4B9A-9432-6A0E52D7EF52}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6016" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6015" uniqueCount="1288">
   <si>
     <t>Corregimiento</t>
   </si>
@@ -3906,6 +3906,9 @@
   </si>
   <si>
     <t>chichica</t>
+  </si>
+  <si>
+    <t>Chepo (Cabecera)</t>
   </si>
 </sst>
 </file>
@@ -4480,11 +4483,12 @@
   <dimension ref="A1:D632"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
     <col min="3" max="3" width="34.85546875" customWidth="1"/>
     <col min="4" max="4" width="41.28515625" customWidth="1"/>
   </cols>
@@ -4493,9 +4497,7 @@
       <c r="A1" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B1" s="1"/>
       <c r="C1" t="s">
         <v>1283</v>
       </c>
@@ -4508,7 +4510,7 @@
         <v>10101</v>
       </c>
       <c r="B2" t="s">
-        <v>700</v>
+        <v>214</v>
       </c>
       <c r="C2">
         <v>9.3769998550415039</v>
@@ -4522,7 +4524,7 @@
         <v>10102</v>
       </c>
       <c r="B3" t="s">
-        <v>701</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>9.3067502975463867</v>
@@ -4536,7 +4538,7 @@
         <v>10103</v>
       </c>
       <c r="B4" t="s">
-        <v>702</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>9.1290197372436523</v>
@@ -4550,7 +4552,7 @@
         <v>10104</v>
       </c>
       <c r="B5" t="s">
-        <v>703</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>9.1766901016235352</v>
@@ -4564,7 +4566,7 @@
         <v>10105</v>
       </c>
       <c r="B6" t="s">
-        <v>704</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>9.2150897979736328</v>
@@ -4578,7 +4580,7 @@
         <v>10201</v>
       </c>
       <c r="B7" t="s">
-        <v>705</v>
+        <v>276</v>
       </c>
       <c r="C7">
         <v>9.449040412902832</v>
@@ -4592,7 +4594,7 @@
         <v>10203</v>
       </c>
       <c r="B8" t="s">
-        <v>707</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>9.4860296249389648</v>
@@ -4606,7 +4608,7 @@
         <v>10204</v>
       </c>
       <c r="B9" t="s">
-        <v>708</v>
+        <v>371</v>
       </c>
       <c r="C9">
         <v>9.2762298583984375</v>
@@ -4620,7 +4622,7 @@
         <v>10206</v>
       </c>
       <c r="B10" t="s">
-        <v>710</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>9.4120197296142578</v>
@@ -4634,7 +4636,7 @@
         <v>10207</v>
       </c>
       <c r="B11" t="s">
-        <v>711</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>9.5335798263549805</v>
@@ -4648,7 +4650,7 @@
         <v>10208</v>
       </c>
       <c r="B12" t="s">
-        <v>712</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>9.2639398574829102</v>
@@ -4662,7 +4664,7 @@
         <v>10209</v>
       </c>
       <c r="B13" t="s">
-        <v>713</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>9.3811502456665039</v>
@@ -4676,7 +4678,7 @@
         <v>10210</v>
       </c>
       <c r="B14" t="s">
-        <v>714</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>9.4179201126098633</v>
@@ -4690,7 +4692,7 @@
         <v>10301</v>
       </c>
       <c r="B15" t="s">
-        <v>717</v>
+        <v>282</v>
       </c>
       <c r="C15">
         <v>8.9332103729248047</v>
@@ -4704,7 +4706,7 @@
         <v>10302</v>
       </c>
       <c r="B16" t="s">
-        <v>718</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>8.9854602813720703</v>
@@ -4718,7 +4720,7 @@
         <v>10303</v>
       </c>
       <c r="B17" t="s">
-        <v>719</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>8.890629768371582</v>
@@ -4732,7 +4734,7 @@
         <v>10304</v>
       </c>
       <c r="B18" t="s">
-        <v>720</v>
+        <v>581</v>
       </c>
       <c r="C18">
         <v>9.0424003601074219</v>
@@ -4746,7 +4748,7 @@
         <v>10305</v>
       </c>
       <c r="B19" t="s">
-        <v>721</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>8.9483699798583984</v>
@@ -4760,7 +4762,7 @@
         <v>10306</v>
       </c>
       <c r="B20" t="s">
-        <v>722</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <v>9.1191902160644531</v>
@@ -4774,7 +4776,7 @@
         <v>20101</v>
       </c>
       <c r="B21" t="s">
-        <v>723</v>
+        <v>145</v>
       </c>
       <c r="C21">
         <v>8.228480339050293</v>
@@ -4788,7 +4790,7 @@
         <v>20102</v>
       </c>
       <c r="B22" t="s">
-        <v>724</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>8.2564401626586914</v>
@@ -4802,7 +4804,7 @@
         <v>20103</v>
       </c>
       <c r="B23" t="s">
-        <v>725</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>8.1534299850463867</v>
@@ -4816,7 +4818,7 @@
         <v>20104</v>
       </c>
       <c r="B24" t="s">
-        <v>726</v>
+        <v>330</v>
       </c>
       <c r="C24">
         <v>8.261500358581543</v>
@@ -4830,7 +4832,7 @@
         <v>20105</v>
       </c>
       <c r="B25" t="s">
-        <v>727</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <v>8.2070999145507813</v>
@@ -4844,7 +4846,7 @@
         <v>20201</v>
       </c>
       <c r="B26" t="s">
-        <v>728</v>
+        <v>168</v>
       </c>
       <c r="C26">
         <v>8.3821001052856445</v>
@@ -4858,7 +4860,7 @@
         <v>20202</v>
       </c>
       <c r="B27" t="s">
-        <v>729</v>
+        <v>22</v>
       </c>
       <c r="C27">
         <v>8.5438604354858398</v>
@@ -4872,7 +4874,7 @@
         <v>20203</v>
       </c>
       <c r="B28" t="s">
-        <v>730</v>
+        <v>334</v>
       </c>
       <c r="C28">
         <v>8.3665800094604492</v>
@@ -4886,7 +4888,7 @@
         <v>20204</v>
       </c>
       <c r="B29" t="s">
-        <v>731</v>
+        <v>23</v>
       </c>
       <c r="C29">
         <v>8.4470300674438477</v>
@@ -4900,7 +4902,7 @@
         <v>20205</v>
       </c>
       <c r="B30" t="s">
-        <v>732</v>
+        <v>24</v>
       </c>
       <c r="C30">
         <v>8.6173000335693359</v>
@@ -4914,7 +4916,7 @@
         <v>20206</v>
       </c>
       <c r="B31" t="s">
-        <v>733</v>
+        <v>415</v>
       </c>
       <c r="C31">
         <v>8.4045696258544922</v>
@@ -4928,7 +4930,7 @@
         <v>20207</v>
       </c>
       <c r="B32" t="s">
-        <v>734</v>
+        <v>25</v>
       </c>
       <c r="C32">
         <v>8.4235696792602539</v>
@@ -4942,7 +4944,7 @@
         <v>20208</v>
       </c>
       <c r="B33" t="s">
-        <v>735</v>
+        <v>26</v>
       </c>
       <c r="C33">
         <v>8.5443096160888672</v>
@@ -4956,7 +4958,7 @@
         <v>20209</v>
       </c>
       <c r="B34" t="s">
-        <v>736</v>
+        <v>27</v>
       </c>
       <c r="C34">
         <v>8.4932699203491211</v>
@@ -4970,7 +4972,7 @@
         <v>20210</v>
       </c>
       <c r="B35" t="s">
-        <v>737</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>8.5330896377563477</v>
@@ -4984,7 +4986,7 @@
         <v>20301</v>
       </c>
       <c r="B36" t="s">
-        <v>738</v>
+        <v>440</v>
       </c>
       <c r="C36">
         <v>8.5803499221801758</v>
@@ -4998,7 +5000,7 @@
         <v>20302</v>
       </c>
       <c r="B37" t="s">
-        <v>739</v>
+        <v>30</v>
       </c>
       <c r="C37">
         <v>8.6912498474121094</v>
@@ -5012,7 +5014,7 @@
         <v>20303</v>
       </c>
       <c r="B38" t="s">
-        <v>740</v>
+        <v>31</v>
       </c>
       <c r="C38">
         <v>8.5453596115112305</v>
@@ -5026,7 +5028,7 @@
         <v>20304</v>
       </c>
       <c r="B39" t="s">
-        <v>741</v>
+        <v>32</v>
       </c>
       <c r="C39">
         <v>8.6641502380371094</v>
@@ -5040,7 +5042,7 @@
         <v>20305</v>
       </c>
       <c r="B40" t="s">
-        <v>742</v>
+        <v>33</v>
       </c>
       <c r="C40">
         <v>8.6909599304199219</v>
@@ -5054,7 +5056,7 @@
         <v>20306</v>
       </c>
       <c r="B41" t="s">
-        <v>743</v>
+        <v>34</v>
       </c>
       <c r="C41">
         <v>8.613800048828125</v>
@@ -5068,7 +5070,7 @@
         <v>20401</v>
       </c>
       <c r="B42" t="s">
-        <v>744</v>
+        <v>521</v>
       </c>
       <c r="C42">
         <v>8.3145303726196289</v>
@@ -5082,7 +5084,7 @@
         <v>20402</v>
       </c>
       <c r="B43" t="s">
-        <v>745</v>
+        <v>248</v>
       </c>
       <c r="C43">
         <v>8.295989990234375</v>
@@ -5096,7 +5098,7 @@
         <v>20403</v>
       </c>
       <c r="B44" t="s">
-        <v>746</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>8.4404096603393555</v>
@@ -5110,7 +5112,7 @@
         <v>20404</v>
       </c>
       <c r="B45" t="s">
-        <v>747</v>
+        <v>395</v>
       </c>
       <c r="C45">
         <v>8.541839599609375</v>
@@ -5124,7 +5126,7 @@
         <v>20405</v>
       </c>
       <c r="B46" t="s">
-        <v>748</v>
+        <v>36</v>
       </c>
       <c r="C46">
         <v>8.4918498992919922</v>
@@ -5138,7 +5140,7 @@
         <v>20406</v>
       </c>
       <c r="B47" t="s">
-        <v>749</v>
+        <v>37</v>
       </c>
       <c r="C47">
         <v>8.365300178527832</v>
@@ -5152,7 +5154,7 @@
         <v>20501</v>
       </c>
       <c r="B48" t="s">
-        <v>750</v>
+        <v>535</v>
       </c>
       <c r="C48">
         <v>8.4641895294189453</v>
@@ -5166,7 +5168,7 @@
         <v>20502</v>
       </c>
       <c r="B49" t="s">
-        <v>751</v>
+        <v>339</v>
       </c>
       <c r="C49">
         <v>8.4704198837280273</v>
@@ -5180,7 +5182,7 @@
         <v>20503</v>
       </c>
       <c r="B50" t="s">
-        <v>752</v>
+        <v>38</v>
       </c>
       <c r="C50">
         <v>8.5693798065185547</v>
@@ -5194,7 +5196,7 @@
         <v>20504</v>
       </c>
       <c r="B51" t="s">
-        <v>753</v>
+        <v>39</v>
       </c>
       <c r="C51">
         <v>8.3898496627807617</v>
@@ -5208,7 +5210,7 @@
         <v>20505</v>
       </c>
       <c r="B52" t="s">
-        <v>754</v>
+        <v>40</v>
       </c>
       <c r="C52">
         <v>8.4689702987670898</v>
@@ -5222,7 +5224,7 @@
         <v>20601</v>
       </c>
       <c r="B53" t="s">
-        <v>755</v>
+        <v>554</v>
       </c>
       <c r="C53">
         <v>8.5279197692871094</v>
@@ -5236,7 +5238,7 @@
         <v>20602</v>
       </c>
       <c r="B54" t="s">
-        <v>756</v>
+        <v>41</v>
       </c>
       <c r="C54">
         <v>8.5223703384399414</v>
@@ -5250,7 +5252,7 @@
         <v>20603</v>
       </c>
       <c r="B55" t="s">
-        <v>757</v>
+        <v>146</v>
       </c>
       <c r="C55">
         <v>8.4075002670288086</v>
@@ -5264,7 +5266,7 @@
         <v>20604</v>
       </c>
       <c r="B56" t="s">
-        <v>758</v>
+        <v>280</v>
       </c>
       <c r="C56">
         <v>8.7105703353881836</v>
@@ -5278,7 +5280,7 @@
         <v>20605</v>
       </c>
       <c r="B57" t="s">
-        <v>759</v>
+        <v>42</v>
       </c>
       <c r="C57">
         <v>8.4118204116821289</v>
@@ -5292,7 +5294,7 @@
         <v>20606</v>
       </c>
       <c r="B58" t="s">
-        <v>760</v>
+        <v>43</v>
       </c>
       <c r="C58">
         <v>8.5912799835205078</v>
@@ -5306,7 +5308,7 @@
         <v>20607</v>
       </c>
       <c r="B59" t="s">
-        <v>761</v>
+        <v>44</v>
       </c>
       <c r="C59">
         <v>8.4470500946044922</v>
@@ -5320,7 +5322,7 @@
         <v>20608</v>
       </c>
       <c r="B60" t="s">
-        <v>762</v>
+        <v>45</v>
       </c>
       <c r="C60">
         <v>8.9061002731323242</v>
@@ -5334,7 +5336,7 @@
         <v>20609</v>
       </c>
       <c r="B61" t="s">
-        <v>763</v>
+        <v>652</v>
       </c>
       <c r="C61">
         <v>8.7375898361206055</v>
@@ -5348,7 +5350,7 @@
         <v>20610</v>
       </c>
       <c r="B62" t="s">
-        <v>764</v>
+        <v>663</v>
       </c>
       <c r="C62">
         <v>8.7228899002075195</v>
@@ -5362,7 +5364,7 @@
         <v>30101</v>
       </c>
       <c r="B63" t="s">
-        <v>765</v>
+        <v>46</v>
       </c>
       <c r="C63">
         <v>9.3623695373535156</v>
@@ -5376,7 +5378,7 @@
         <v>30102</v>
       </c>
       <c r="B64" t="s">
-        <v>766</v>
+        <v>47</v>
       </c>
       <c r="C64">
         <v>9.3536300659179688</v>
@@ -5390,7 +5392,7 @@
         <v>30103</v>
       </c>
       <c r="B65" t="s">
-        <v>767</v>
+        <v>48</v>
       </c>
       <c r="C65">
         <v>9.2845096588134766</v>
@@ -5404,7 +5406,7 @@
         <v>30104</v>
       </c>
       <c r="B66" t="s">
-        <v>768</v>
+        <v>254</v>
       </c>
       <c r="C66">
         <v>9.361140251159668</v>
@@ -5418,7 +5420,7 @@
         <v>30105</v>
       </c>
       <c r="B67" t="s">
-        <v>769</v>
+        <v>49</v>
       </c>
       <c r="C67">
         <v>9.0191001892089844</v>
@@ -5431,8 +5433,8 @@
       <c r="A68" s="9">
         <v>30107</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>770</v>
+      <c r="B68" t="s">
+        <v>303</v>
       </c>
       <c r="C68">
         <v>9.1933498382568359</v>
@@ -5445,8 +5447,8 @@
       <c r="A69" s="9">
         <v>30107</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>771</v>
+      <c r="B69" t="s">
+        <v>303</v>
       </c>
       <c r="C69">
         <v>9.1933498382568359</v>
@@ -5460,7 +5462,7 @@
         <v>30108</v>
       </c>
       <c r="B70" t="s">
-        <v>772</v>
+        <v>475</v>
       </c>
       <c r="C70">
         <v>9.2624597549438477</v>
@@ -5474,7 +5476,7 @@
         <v>30109</v>
       </c>
       <c r="B71" t="s">
-        <v>773</v>
+        <v>50</v>
       </c>
       <c r="C71">
         <v>9.295680046081543</v>
@@ -5488,7 +5490,7 @@
         <v>30110</v>
       </c>
       <c r="B72" t="s">
-        <v>774</v>
+        <v>577</v>
       </c>
       <c r="C72">
         <v>9.3569297790527344</v>
@@ -5502,7 +5504,7 @@
         <v>30111</v>
       </c>
       <c r="B73" t="s">
-        <v>775</v>
+        <v>51</v>
       </c>
       <c r="C73">
         <v>9.3357400894165039</v>
@@ -5516,7 +5518,7 @@
         <v>30112</v>
       </c>
       <c r="B74" t="s">
-        <v>776</v>
+        <v>52</v>
       </c>
       <c r="C74">
         <v>9.3793001174926758</v>
@@ -5530,7 +5532,7 @@
         <v>30113</v>
       </c>
       <c r="B75" t="s">
-        <v>777</v>
+        <v>53</v>
       </c>
       <c r="C75">
         <v>9.2413902282714844</v>
@@ -5544,7 +5546,7 @@
         <v>30114</v>
       </c>
       <c r="B76" t="s">
-        <v>778</v>
+        <v>54</v>
       </c>
       <c r="C76">
         <v>9.2052202224731445</v>
@@ -5558,7 +5560,7 @@
         <v>30201</v>
       </c>
       <c r="B77" t="s">
-        <v>779</v>
+        <v>529</v>
       </c>
       <c r="C77">
         <v>9.2445802688598633</v>
@@ -5572,7 +5574,7 @@
         <v>30202</v>
       </c>
       <c r="B78" t="s">
-        <v>780</v>
+        <v>55</v>
       </c>
       <c r="C78">
         <v>9.2042398452758789</v>
@@ -5586,7 +5588,7 @@
         <v>30203</v>
       </c>
       <c r="B79" t="s">
-        <v>781</v>
+        <v>56</v>
       </c>
       <c r="C79">
         <v>9.1132001876831055</v>
@@ -5600,7 +5602,7 @@
         <v>30204</v>
       </c>
       <c r="B80" t="s">
-        <v>782</v>
+        <v>57</v>
       </c>
       <c r="C80">
         <v>9.0422296524047852</v>
@@ -5614,7 +5616,7 @@
         <v>30205</v>
       </c>
       <c r="B81" t="s">
-        <v>783</v>
+        <v>58</v>
       </c>
       <c r="C81">
         <v>9.1817197799682617</v>
@@ -5628,7 +5630,7 @@
         <v>30206</v>
       </c>
       <c r="B82" t="s">
-        <v>784</v>
+        <v>59</v>
       </c>
       <c r="C82">
         <v>9.2635402679443359</v>
@@ -5642,7 +5644,7 @@
         <v>30207</v>
       </c>
       <c r="B83" t="s">
-        <v>785</v>
+        <v>60</v>
       </c>
       <c r="C83">
         <v>9.1460695266723633</v>
@@ -5656,7 +5658,7 @@
         <v>30301</v>
       </c>
       <c r="B84" t="s">
-        <v>786</v>
+        <v>511</v>
       </c>
       <c r="C84">
         <v>9.0932502746582031</v>
@@ -5670,7 +5672,7 @@
         <v>30302</v>
       </c>
       <c r="B85" t="s">
-        <v>787</v>
+        <v>295</v>
       </c>
       <c r="C85">
         <v>8.9109601974487305</v>
@@ -5684,7 +5686,7 @@
         <v>30303</v>
       </c>
       <c r="B86" t="s">
-        <v>788</v>
+        <v>347</v>
       </c>
       <c r="C86">
         <v>9.0007801055908203</v>
@@ -5698,7 +5700,7 @@
         <v>30304</v>
       </c>
       <c r="B87" t="s">
-        <v>789</v>
+        <v>61</v>
       </c>
       <c r="C87">
         <v>9.130040168762207</v>
@@ -5712,7 +5714,7 @@
         <v>30305</v>
       </c>
       <c r="B88" t="s">
-        <v>762</v>
+        <v>45</v>
       </c>
       <c r="C88">
         <v>9.0889797210693359</v>
@@ -5726,7 +5728,7 @@
         <v>30401</v>
       </c>
       <c r="B89" t="s">
-        <v>791</v>
+        <v>567</v>
       </c>
       <c r="C89">
         <v>9.5014200210571289</v>
@@ -5740,7 +5742,7 @@
         <v>30402</v>
       </c>
       <c r="B90" t="s">
-        <v>792</v>
+        <v>63</v>
       </c>
       <c r="C90">
         <v>9.5963497161865234</v>
@@ -5754,7 +5756,7 @@
         <v>30403</v>
       </c>
       <c r="B91" t="s">
-        <v>793</v>
+        <v>575</v>
       </c>
       <c r="C91">
         <v>9.5859203338623047</v>
@@ -5768,7 +5770,7 @@
         <v>30404</v>
       </c>
       <c r="B92" t="s">
-        <v>794</v>
+        <v>64</v>
       </c>
       <c r="C92">
         <v>9.5977602005004883</v>
@@ -5782,7 +5784,7 @@
         <v>30405</v>
       </c>
       <c r="B93" t="s">
-        <v>795</v>
+        <v>505</v>
       </c>
       <c r="C93">
         <v>9.4075098037719727</v>
@@ -5796,7 +5798,7 @@
         <v>30501</v>
       </c>
       <c r="B94" t="s">
-        <v>796</v>
+        <v>542</v>
       </c>
       <c r="C94">
         <v>9.4918899536132813</v>
@@ -5810,7 +5812,7 @@
         <v>30502</v>
       </c>
       <c r="B95" t="s">
-        <v>797</v>
+        <v>65</v>
       </c>
       <c r="C95">
         <v>9.5180501937866211</v>
@@ -5824,7 +5826,7 @@
         <v>30503</v>
       </c>
       <c r="B96" t="s">
-        <v>718</v>
+        <v>14</v>
       </c>
       <c r="C96">
         <v>9.558380126953125</v>
@@ -5838,7 +5840,7 @@
         <v>30504</v>
       </c>
       <c r="B97" t="s">
-        <v>798</v>
+        <v>66</v>
       </c>
       <c r="C97">
         <v>9.5416498184204102</v>
@@ -5852,7 +5854,7 @@
         <v>30505</v>
       </c>
       <c r="B98" t="s">
-        <v>799</v>
+        <v>67</v>
       </c>
       <c r="C98">
         <v>9.4516496658325195</v>
@@ -5866,7 +5868,7 @@
         <v>30506</v>
       </c>
       <c r="B99" t="s">
-        <v>800</v>
+        <v>68</v>
       </c>
       <c r="C99">
         <v>9.4756298065185547</v>
@@ -5880,7 +5882,7 @@
         <v>30507</v>
       </c>
       <c r="B100" t="s">
-        <v>801</v>
+        <v>69</v>
       </c>
       <c r="C100">
         <v>9.5020904541015625</v>
@@ -5894,7 +5896,7 @@
         <v>30508</v>
       </c>
       <c r="B101" t="s">
-        <v>802</v>
+        <v>676</v>
       </c>
       <c r="C101">
         <v>9.5429897308349609</v>
@@ -5908,7 +5910,7 @@
         <v>40101</v>
       </c>
       <c r="B102" t="s">
-        <v>803</v>
+        <v>149</v>
       </c>
       <c r="C102">
         <v>8.4027595520019531</v>
@@ -5922,7 +5924,7 @@
         <v>40102</v>
       </c>
       <c r="B103" t="s">
-        <v>804</v>
+        <v>313</v>
       </c>
       <c r="C103">
         <v>8.4027595520019531</v>
@@ -5936,7 +5938,7 @@
         <v>40103</v>
       </c>
       <c r="B104" t="s">
-        <v>805</v>
+        <v>71</v>
       </c>
       <c r="C104">
         <v>8.4359502792358398</v>
@@ -5950,7 +5952,7 @@
         <v>40104</v>
       </c>
       <c r="B105" t="s">
-        <v>806</v>
+        <v>72</v>
       </c>
       <c r="C105">
         <v>8.3268699645996094</v>
@@ -5964,7 +5966,7 @@
         <v>40105</v>
       </c>
       <c r="B106" t="s">
-        <v>807</v>
+        <v>73</v>
       </c>
       <c r="C106">
         <v>8.3478498458862305</v>
@@ -5978,7 +5980,7 @@
         <v>40106</v>
       </c>
       <c r="B107" t="s">
-        <v>808</v>
+        <v>588</v>
       </c>
       <c r="C107">
         <v>8.3469295501708984</v>
@@ -5992,7 +5994,7 @@
         <v>40107</v>
       </c>
       <c r="B108" t="s">
-        <v>809</v>
+        <v>639</v>
       </c>
       <c r="C108">
         <v>8.3909902572631836</v>
@@ -6006,7 +6008,7 @@
         <v>40108</v>
       </c>
       <c r="B109" t="s">
-        <v>810</v>
+        <v>74</v>
       </c>
       <c r="C109">
         <v>8.3842802047729492</v>
@@ -6020,7 +6022,7 @@
         <v>40109</v>
       </c>
       <c r="B110" t="s">
-        <v>811</v>
+        <v>531</v>
       </c>
       <c r="C110">
         <v>8.4138603210449219</v>
@@ -6034,7 +6036,7 @@
         <v>40201</v>
       </c>
       <c r="B111" t="s">
-        <v>812</v>
+        <v>573</v>
       </c>
       <c r="C111">
         <v>8.286529541015625</v>
@@ -6048,7 +6050,7 @@
         <v>40202</v>
       </c>
       <c r="B112" t="s">
-        <v>813</v>
+        <v>75</v>
       </c>
       <c r="C112">
         <v>8.1067304611206055</v>
@@ -6062,7 +6064,7 @@
         <v>40203</v>
       </c>
       <c r="B113" t="s">
-        <v>814</v>
+        <v>76</v>
       </c>
       <c r="C113">
         <v>8.4591102600097656</v>
@@ -6076,7 +6078,7 @@
         <v>40204</v>
       </c>
       <c r="B114" t="s">
-        <v>815</v>
+        <v>77</v>
       </c>
       <c r="C114">
         <v>8.3662996292114258</v>
@@ -6090,7 +6092,7 @@
         <v>40205</v>
       </c>
       <c r="B115" t="s">
-        <v>816</v>
+        <v>78</v>
       </c>
       <c r="C115">
         <v>8.3701095581054688</v>
@@ -6104,7 +6106,7 @@
         <v>40301</v>
       </c>
       <c r="B116" t="s">
-        <v>817</v>
+        <v>215</v>
       </c>
       <c r="C116">
         <v>8.5413398742675781</v>
@@ -6118,7 +6120,7 @@
         <v>40302</v>
       </c>
       <c r="B117" t="s">
-        <v>818</v>
+        <v>181</v>
       </c>
       <c r="C117">
         <v>8.5184698104858398</v>
@@ -6132,7 +6134,7 @@
         <v>40303</v>
       </c>
       <c r="B118" t="s">
-        <v>819</v>
+        <v>79</v>
       </c>
       <c r="C118">
         <v>8.7522802352905273</v>
@@ -6146,7 +6148,7 @@
         <v>40304</v>
       </c>
       <c r="B119" t="s">
-        <v>820</v>
+        <v>80</v>
       </c>
       <c r="C119">
         <v>8.6119203567504883</v>
@@ -6160,7 +6162,7 @@
         <v>40305</v>
       </c>
       <c r="B120" t="s">
-        <v>821</v>
+        <v>81</v>
       </c>
       <c r="C120">
         <v>8.661219596862793</v>
@@ -6174,7 +6176,7 @@
         <v>40306</v>
       </c>
       <c r="B121" t="s">
-        <v>822</v>
+        <v>543</v>
       </c>
       <c r="C121">
         <v>8.7115898132324219</v>
@@ -6188,7 +6190,7 @@
         <v>40307</v>
       </c>
       <c r="B122" t="s">
-        <v>823</v>
+        <v>82</v>
       </c>
       <c r="C122">
         <v>8.4875001907348633</v>
@@ -6202,7 +6204,7 @@
         <v>40308</v>
       </c>
       <c r="B123" t="s">
-        <v>824</v>
+        <v>83</v>
       </c>
       <c r="C123">
         <v>8.471099853515625</v>
@@ -6216,7 +6218,7 @@
         <v>40401</v>
       </c>
       <c r="B124" t="s">
-        <v>825</v>
+        <v>216</v>
       </c>
       <c r="C124">
         <v>8.7789897918701172</v>
@@ -6230,7 +6232,7 @@
         <v>40402</v>
       </c>
       <c r="B125" t="s">
-        <v>826</v>
+        <v>84</v>
       </c>
       <c r="C125">
         <v>8.7143402099609375</v>
@@ -6244,7 +6246,7 @@
         <v>40403</v>
       </c>
       <c r="B126" t="s">
-        <v>799</v>
+        <v>67</v>
       </c>
       <c r="C126">
         <v>8.7617902755737305</v>
@@ -6258,7 +6260,7 @@
         <v>40404</v>
       </c>
       <c r="B127" t="s">
-        <v>827</v>
+        <v>155</v>
       </c>
       <c r="C127">
         <v>8.6750497817993164</v>
@@ -6272,7 +6274,7 @@
         <v>40405</v>
       </c>
       <c r="B128" t="s">
-        <v>828</v>
+        <v>85</v>
       </c>
       <c r="C128">
         <v>8.770970344543457</v>
@@ -6286,7 +6288,7 @@
         <v>40406</v>
       </c>
       <c r="B129" t="s">
-        <v>829</v>
+        <v>86</v>
       </c>
       <c r="C129">
         <v>8.8268499374389648</v>
@@ -6300,7 +6302,7 @@
         <v>40501</v>
       </c>
       <c r="B130" t="s">
-        <v>830</v>
+        <v>422</v>
       </c>
       <c r="C130">
         <v>8.5626001358032227</v>
@@ -6314,7 +6316,7 @@
         <v>40502</v>
       </c>
       <c r="B131" t="s">
-        <v>831</v>
+        <v>177</v>
       </c>
       <c r="C131">
         <v>8.4997396469116211</v>
@@ -6328,7 +6330,7 @@
         <v>40503</v>
       </c>
       <c r="B132" t="s">
-        <v>832</v>
+        <v>87</v>
       </c>
       <c r="C132">
         <v>8.4819097518920898</v>
@@ -6342,7 +6344,7 @@
         <v>41402</v>
       </c>
       <c r="B133" t="s">
-        <v>833</v>
+        <v>88</v>
       </c>
       <c r="C133">
         <v>8.872349739074707</v>
@@ -6356,7 +6358,7 @@
         <v>40505</v>
       </c>
       <c r="B134" t="s">
-        <v>834</v>
+        <v>386</v>
       </c>
       <c r="C134">
         <v>8.5682802200317383</v>
@@ -6370,7 +6372,7 @@
         <v>40506</v>
       </c>
       <c r="B135" t="s">
-        <v>835</v>
+        <v>89</v>
       </c>
       <c r="C135">
         <v>8.499079704284668</v>
@@ -6384,7 +6386,7 @@
         <v>40507</v>
       </c>
       <c r="B136" t="s">
-        <v>836</v>
+        <v>613</v>
       </c>
       <c r="C136">
         <v>8.6433696746826172</v>
@@ -6398,7 +6400,7 @@
         <v>40508</v>
       </c>
       <c r="B137" t="s">
-        <v>837</v>
+        <v>90</v>
       </c>
       <c r="C137">
         <v>8.5154304504394531</v>
@@ -6412,7 +6414,7 @@
         <v>40509</v>
       </c>
       <c r="B138" t="s">
-        <v>778</v>
+        <v>54</v>
       </c>
       <c r="C138">
         <v>8.6152400970458984</v>
@@ -6426,7 +6428,7 @@
         <v>40510</v>
       </c>
       <c r="B139" t="s">
-        <v>838</v>
+        <v>91</v>
       </c>
       <c r="C139">
         <v>8.4881496429443359</v>
@@ -6440,7 +6442,7 @@
         <v>40511</v>
       </c>
       <c r="B140" t="s">
-        <v>839</v>
+        <v>647</v>
       </c>
       <c r="C140">
         <v>8.5834999084472656</v>
@@ -6454,7 +6456,7 @@
         <v>40513</v>
       </c>
       <c r="B141" t="s">
-        <v>841</v>
+        <v>92</v>
       </c>
       <c r="C141">
         <v>8.6062803268432617</v>
@@ -6468,7 +6470,7 @@
         <v>40601</v>
       </c>
       <c r="B142" t="s">
-        <v>842</v>
+        <v>308</v>
       </c>
       <c r="C142">
         <v>8.450770378112793</v>
@@ -6482,7 +6484,7 @@
         <v>40602</v>
       </c>
       <c r="B143" t="s">
-        <v>843</v>
+        <v>94</v>
       </c>
       <c r="C143">
         <v>8.5087995529174805</v>
@@ -6496,7 +6498,7 @@
         <v>40603</v>
       </c>
       <c r="B144" t="s">
-        <v>844</v>
+        <v>95</v>
       </c>
       <c r="C144">
         <v>8.5543298721313477</v>
@@ -6510,7 +6512,7 @@
         <v>40604</v>
       </c>
       <c r="B145" t="s">
-        <v>845</v>
+        <v>150</v>
       </c>
       <c r="C145">
         <v>8.3701000213623047</v>
@@ -6524,7 +6526,7 @@
         <v>40605</v>
       </c>
       <c r="B146" t="s">
-        <v>846</v>
+        <v>388</v>
       </c>
       <c r="C146">
         <v>8.6007003784179688</v>
@@ -6538,7 +6540,7 @@
         <v>40606</v>
       </c>
       <c r="B147" t="s">
-        <v>743</v>
+        <v>34</v>
       </c>
       <c r="C147">
         <v>8.4426403045654297</v>
@@ -6552,7 +6554,7 @@
         <v>40607</v>
       </c>
       <c r="B148" t="s">
-        <v>823</v>
+        <v>82</v>
       </c>
       <c r="C148">
         <v>8.2754697799682617</v>
@@ -6566,7 +6568,7 @@
         <v>40608</v>
       </c>
       <c r="B149" t="s">
-        <v>847</v>
+        <v>96</v>
       </c>
       <c r="C149">
         <v>8.5214300155639648</v>
@@ -6580,7 +6582,7 @@
         <v>40609</v>
       </c>
       <c r="B150" t="s">
-        <v>848</v>
+        <v>97</v>
       </c>
       <c r="C150">
         <v>8.3903999328613281</v>
@@ -6594,7 +6596,7 @@
         <v>40610</v>
       </c>
       <c r="B151" t="s">
-        <v>849</v>
+        <v>98</v>
       </c>
       <c r="C151">
         <v>8.4612503051757813</v>
@@ -6608,7 +6610,7 @@
         <v>40701</v>
       </c>
       <c r="B152" t="s">
-        <v>850</v>
+        <v>314</v>
       </c>
       <c r="C152">
         <v>8.5740499496459961</v>
@@ -6622,7 +6624,7 @@
         <v>40702</v>
       </c>
       <c r="B153" t="s">
-        <v>851</v>
+        <v>316</v>
       </c>
       <c r="C153">
         <v>8.5351600646972656</v>
@@ -6636,7 +6638,7 @@
         <v>40703</v>
       </c>
       <c r="B154" t="s">
-        <v>852</v>
+        <v>100</v>
       </c>
       <c r="C154">
         <v>8.5325403213500977</v>
@@ -6650,7 +6652,7 @@
         <v>40704</v>
       </c>
       <c r="B155" t="s">
-        <v>853</v>
+        <v>101</v>
       </c>
       <c r="C155">
         <v>8.7143802642822266</v>
@@ -6664,7 +6666,7 @@
         <v>40705</v>
       </c>
       <c r="B156" t="s">
-        <v>854</v>
+        <v>568</v>
       </c>
       <c r="C156">
         <v>8.6371297836303711</v>
@@ -6678,7 +6680,7 @@
         <v>40706</v>
       </c>
       <c r="B157" t="s">
-        <v>855</v>
+        <v>102</v>
       </c>
       <c r="C157">
         <v>8.6841697692871094</v>
@@ -6692,7 +6694,7 @@
         <v>40707</v>
       </c>
       <c r="B158" t="s">
-        <v>856</v>
+        <v>103</v>
       </c>
       <c r="C158">
         <v>8.5693902969360352</v>
@@ -6706,7 +6708,7 @@
         <v>40708</v>
       </c>
       <c r="B159" t="s">
-        <v>857</v>
+        <v>104</v>
       </c>
       <c r="C159">
         <v>8.5330896377563477</v>
@@ -6720,7 +6722,7 @@
         <v>40801</v>
       </c>
       <c r="B160" t="s">
-        <v>858</v>
+        <v>105</v>
       </c>
       <c r="C160">
         <v>8.5818099975585938</v>
@@ -6734,7 +6736,7 @@
         <v>40802</v>
       </c>
       <c r="B161" t="s">
-        <v>859</v>
+        <v>106</v>
       </c>
       <c r="C161">
         <v>8.7137699127197266</v>
@@ -6748,7 +6750,7 @@
         <v>40803</v>
       </c>
       <c r="B162" t="s">
-        <v>860</v>
+        <v>485</v>
       </c>
       <c r="C162">
         <v>8.5308904647827148</v>
@@ -6762,7 +6764,7 @@
         <v>40804</v>
       </c>
       <c r="B163" t="s">
-        <v>861</v>
+        <v>107</v>
       </c>
       <c r="C163">
         <v>8.6539497375488281</v>
@@ -6776,7 +6778,7 @@
         <v>40805</v>
       </c>
       <c r="B164" t="s">
-        <v>862</v>
+        <v>591</v>
       </c>
       <c r="C164">
         <v>8.4632396697998047</v>
@@ -6790,7 +6792,7 @@
         <v>40901</v>
       </c>
       <c r="B165" t="s">
-        <v>863</v>
+        <v>590</v>
       </c>
       <c r="C165">
         <v>8.1803302764892578</v>
@@ -6804,7 +6806,7 @@
         <v>40902</v>
       </c>
       <c r="B166" t="s">
-        <v>864</v>
+        <v>109</v>
       </c>
       <c r="C166">
         <v>8.2448196411132813</v>
@@ -6818,7 +6820,7 @@
         <v>40903</v>
       </c>
       <c r="B167" t="s">
-        <v>865</v>
+        <v>110</v>
       </c>
       <c r="C167">
         <v>8.2763204574584961</v>
@@ -6832,7 +6834,7 @@
         <v>40904</v>
       </c>
       <c r="B168" t="s">
-        <v>866</v>
+        <v>111</v>
       </c>
       <c r="C168">
         <v>8.1991901397705078</v>
@@ -6846,7 +6848,7 @@
         <v>40905</v>
       </c>
       <c r="B169" t="s">
-        <v>867</v>
+        <v>634</v>
       </c>
       <c r="C169">
         <v>8.2518501281738281</v>
@@ -6860,7 +6862,7 @@
         <v>41001</v>
       </c>
       <c r="B170" t="s">
-        <v>868</v>
+        <v>602</v>
       </c>
       <c r="C170">
         <v>8.8283300399780273</v>
@@ -6874,7 +6876,7 @@
         <v>41002</v>
       </c>
       <c r="B171" t="s">
-        <v>869</v>
+        <v>218</v>
       </c>
       <c r="C171">
         <v>8.6227397918701172</v>
@@ -6888,7 +6890,7 @@
         <v>41003</v>
       </c>
       <c r="B172" t="s">
-        <v>870</v>
+        <v>112</v>
       </c>
       <c r="C172">
         <v>8.7204198837280273</v>
@@ -6902,7 +6904,7 @@
         <v>41004</v>
       </c>
       <c r="B173" t="s">
-        <v>871</v>
+        <v>113</v>
       </c>
       <c r="C173">
         <v>8.7965497970581055</v>
@@ -6916,7 +6918,7 @@
         <v>41005</v>
       </c>
       <c r="B174" t="s">
-        <v>872</v>
+        <v>563</v>
       </c>
       <c r="C174">
         <v>8.7581100463867188</v>
@@ -6930,7 +6932,7 @@
         <v>41006</v>
       </c>
       <c r="B175" t="s">
-        <v>873</v>
+        <v>114</v>
       </c>
       <c r="C175">
         <v>8.64739990234375</v>
@@ -6944,7 +6946,7 @@
         <v>41007</v>
       </c>
       <c r="B176" t="s">
-        <v>874</v>
+        <v>115</v>
       </c>
       <c r="C176">
         <v>8.7132301330566406</v>
@@ -6958,7 +6960,7 @@
         <v>41008</v>
       </c>
       <c r="B177" t="s">
-        <v>875</v>
+        <v>116</v>
       </c>
       <c r="C177">
         <v>8.8449602127075195</v>
@@ -6972,7 +6974,7 @@
         <v>41101</v>
       </c>
       <c r="B178" t="s">
-        <v>876</v>
+        <v>117</v>
       </c>
       <c r="C178">
         <v>8.2079601287841797</v>
@@ -6986,7 +6988,7 @@
         <v>41102</v>
       </c>
       <c r="B179" t="s">
-        <v>877</v>
+        <v>416</v>
       </c>
       <c r="C179">
         <v>8.2960596084594727</v>
@@ -7000,7 +7002,7 @@
         <v>41103</v>
       </c>
       <c r="B180" t="s">
-        <v>878</v>
+        <v>118</v>
       </c>
       <c r="C180">
         <v>8.2214202880859375</v>
@@ -7014,7 +7016,7 @@
         <v>41104</v>
       </c>
       <c r="B181" t="s">
-        <v>879</v>
+        <v>417</v>
       </c>
       <c r="C181">
         <v>8.3113698959350586</v>
@@ -7028,7 +7030,7 @@
         <v>41105</v>
       </c>
       <c r="B182" t="s">
-        <v>873</v>
+        <v>114</v>
       </c>
       <c r="C182">
         <v>8.241999626159668</v>
@@ -7042,7 +7044,7 @@
         <v>41201</v>
       </c>
       <c r="B183" t="s">
-        <v>880</v>
+        <v>405</v>
       </c>
       <c r="C183">
         <v>8.2995004653930664</v>
@@ -7056,7 +7058,7 @@
         <v>41202</v>
       </c>
       <c r="B184" t="s">
-        <v>881</v>
+        <v>119</v>
       </c>
       <c r="C184">
         <v>8.220210075378418</v>
@@ -7070,7 +7072,7 @@
         <v>41203</v>
       </c>
       <c r="B185" t="s">
-        <v>882</v>
+        <v>120</v>
       </c>
       <c r="C185">
         <v>8.3999099731445313</v>
@@ -7084,7 +7086,7 @@
         <v>41204</v>
       </c>
       <c r="B186" t="s">
-        <v>777</v>
+        <v>53</v>
       </c>
       <c r="C186">
         <v>8.2701301574707031</v>
@@ -7098,7 +7100,7 @@
         <v>41205</v>
       </c>
       <c r="B187" t="s">
-        <v>883</v>
+        <v>121</v>
       </c>
       <c r="C187">
         <v>8.277409553527832</v>
@@ -7112,7 +7114,7 @@
         <v>41301</v>
       </c>
       <c r="B188" t="s">
-        <v>884</v>
+        <v>655</v>
       </c>
       <c r="C188">
         <v>8.2194900512695313</v>
@@ -7126,7 +7128,7 @@
         <v>41302</v>
       </c>
       <c r="B189" t="s">
-        <v>885</v>
+        <v>122</v>
       </c>
       <c r="C189">
         <v>8.1935997009277344</v>
@@ -7140,7 +7142,7 @@
         <v>41303</v>
       </c>
       <c r="B190" t="s">
-        <v>886</v>
+        <v>123</v>
       </c>
       <c r="C190">
         <v>8.2536897659301758</v>
@@ -7154,7 +7156,7 @@
         <v>41304</v>
       </c>
       <c r="B191" t="s">
-        <v>724</v>
+        <v>19</v>
       </c>
       <c r="C191">
         <v>8.3224802017211914</v>
@@ -7168,7 +7170,7 @@
         <v>41305</v>
       </c>
       <c r="B192" t="s">
-        <v>887</v>
+        <v>124</v>
       </c>
       <c r="C192">
         <v>8.3272104263305664</v>
@@ -7182,7 +7184,7 @@
         <v>41306</v>
       </c>
       <c r="B193" t="s">
-        <v>888</v>
+        <v>455</v>
       </c>
       <c r="C193">
         <v>8.155949592590332</v>
@@ -7196,7 +7198,7 @@
         <v>41307</v>
       </c>
       <c r="B194" t="s">
-        <v>889</v>
+        <v>125</v>
       </c>
       <c r="C194">
         <v>8.2853097915649414</v>
@@ -7210,7 +7212,7 @@
         <v>41308</v>
       </c>
       <c r="B195" t="s">
-        <v>890</v>
+        <v>126</v>
       </c>
       <c r="C195">
         <v>8.0797901153564453</v>
@@ -7224,7 +7226,7 @@
         <v>41309</v>
       </c>
       <c r="B196" t="s">
-        <v>891</v>
+        <v>127</v>
       </c>
       <c r="C196">
         <v>8.2382097244262695</v>
@@ -7238,7 +7240,7 @@
         <v>50101</v>
       </c>
       <c r="B197" t="s">
-        <v>892</v>
+        <v>437</v>
       </c>
       <c r="C197">
         <v>8.2803802490234375</v>
@@ -7252,7 +7254,7 @@
         <v>50102</v>
       </c>
       <c r="B198" t="s">
-        <v>893</v>
+        <v>238</v>
       </c>
       <c r="C198">
         <v>8.0714502334594727</v>
@@ -7266,7 +7268,7 @@
         <v>50103</v>
       </c>
       <c r="B199" t="s">
-        <v>894</v>
+        <v>129</v>
       </c>
       <c r="C199">
         <v>8.1189498901367188</v>
@@ -7280,7 +7282,7 @@
         <v>50104</v>
       </c>
       <c r="B200" t="s">
-        <v>895</v>
+        <v>383</v>
       </c>
       <c r="C200">
         <v>8.0284996032714844</v>
@@ -7294,7 +7296,7 @@
         <v>50105</v>
       </c>
       <c r="B201" t="s">
-        <v>896</v>
+        <v>410</v>
       </c>
       <c r="C201">
         <v>7.4707298278808594</v>
@@ -7308,7 +7310,7 @@
         <v>50106</v>
       </c>
       <c r="B202" t="s">
-        <v>897</v>
+        <v>578</v>
       </c>
       <c r="C202">
         <v>7.7908501625061035</v>
@@ -7322,7 +7324,7 @@
         <v>50109</v>
       </c>
       <c r="B203" t="s">
-        <v>900</v>
+        <v>412</v>
       </c>
       <c r="C203">
         <v>8.0188703536987305</v>
@@ -7336,7 +7338,7 @@
         <v>50110</v>
       </c>
       <c r="B204" t="s">
-        <v>901</v>
+        <v>641</v>
       </c>
       <c r="C204">
         <v>8.2771596908569336</v>
@@ -7350,7 +7352,7 @@
         <v>50111</v>
       </c>
       <c r="B205" t="s">
-        <v>902</v>
+        <v>650</v>
       </c>
       <c r="C205">
         <v>8.1294803619384766</v>
@@ -7364,7 +7366,7 @@
         <v>50112</v>
       </c>
       <c r="B206" t="s">
-        <v>903</v>
+        <v>662</v>
       </c>
       <c r="C206">
         <v>7.7562398910522461</v>
@@ -7378,7 +7380,7 @@
         <v>50201</v>
       </c>
       <c r="B207" t="s">
-        <v>908</v>
+        <v>368</v>
       </c>
       <c r="C207">
         <v>8.0601902008056641</v>
@@ -7392,7 +7394,7 @@
         <v>50202</v>
       </c>
       <c r="B208" t="s">
-        <v>909</v>
+        <v>212</v>
       </c>
       <c r="C208">
         <v>7.8227500915527344</v>
@@ -7406,7 +7408,7 @@
         <v>50203</v>
       </c>
       <c r="B209" t="s">
-        <v>910</v>
+        <v>550</v>
       </c>
       <c r="C209">
         <v>7.8243398666381836</v>
@@ -7420,7 +7422,7 @@
         <v>50204</v>
       </c>
       <c r="B210" t="s">
-        <v>911</v>
+        <v>213</v>
       </c>
       <c r="C210">
         <v>8.0926103591918945</v>
@@ -7434,7 +7436,7 @@
         <v>50205</v>
       </c>
       <c r="B211" t="s">
-        <v>912</v>
+        <v>570</v>
       </c>
       <c r="C211">
         <v>7.9903302192687988</v>
@@ -7448,7 +7450,7 @@
         <v>50206</v>
       </c>
       <c r="B212" t="s">
-        <v>913</v>
+        <v>685</v>
       </c>
       <c r="C212">
         <v>8.0620203018188477</v>
@@ -7462,7 +7464,7 @@
         <v>50207</v>
       </c>
       <c r="B213" t="s">
-        <v>914</v>
+        <v>686</v>
       </c>
       <c r="C213">
         <v>8.2111301422119141</v>
@@ -7476,7 +7478,7 @@
         <v>50208</v>
       </c>
       <c r="B214" t="s">
-        <v>915</v>
+        <v>510</v>
       </c>
       <c r="C214">
         <v>8.584589958190918</v>
@@ -7490,7 +7492,7 @@
         <v>50209</v>
       </c>
       <c r="B215" t="s">
-        <v>916</v>
+        <v>298</v>
       </c>
       <c r="C215">
         <v>8.9049797058105469</v>
@@ -7504,7 +7506,7 @@
         <v>60101</v>
       </c>
       <c r="B216" t="s">
-        <v>917</v>
+        <v>284</v>
       </c>
       <c r="C216">
         <v>7.9528999328613281</v>
@@ -7518,7 +7520,7 @@
         <v>60102</v>
       </c>
       <c r="B217" t="s">
-        <v>918</v>
+        <v>419</v>
       </c>
       <c r="C217">
         <v>7.9622797966003418</v>
@@ -7532,7 +7534,7 @@
         <v>60103</v>
       </c>
       <c r="B218" t="s">
-        <v>919</v>
+        <v>513</v>
       </c>
       <c r="C218">
         <v>7.9989299774169922</v>
@@ -7546,7 +7548,7 @@
         <v>60104</v>
       </c>
       <c r="B219" t="s">
-        <v>920</v>
+        <v>477</v>
       </c>
       <c r="C219">
         <v>7.9904999732971191</v>
@@ -7560,7 +7562,7 @@
         <v>60105</v>
       </c>
       <c r="B220" t="s">
-        <v>921</v>
+        <v>622</v>
       </c>
       <c r="C220">
         <v>7.967440128326416</v>
@@ -7574,7 +7576,7 @@
         <v>60201</v>
       </c>
       <c r="B221" t="s">
-        <v>922</v>
+        <v>465</v>
       </c>
       <c r="C221">
         <v>7.7913198471069336</v>
@@ -7588,7 +7590,7 @@
         <v>60202</v>
       </c>
       <c r="B222" t="s">
-        <v>923</v>
+        <v>247</v>
       </c>
       <c r="C222">
         <v>7.6671299934387207</v>
@@ -7602,7 +7604,7 @@
         <v>60203</v>
       </c>
       <c r="B223" t="s">
-        <v>924</v>
+        <v>286</v>
       </c>
       <c r="C223">
         <v>7.837130069732666</v>
@@ -7616,7 +7618,7 @@
         <v>60204</v>
       </c>
       <c r="B224" t="s">
-        <v>925</v>
+        <v>373</v>
       </c>
       <c r="C224">
         <v>7.7526202201843262</v>
@@ -7630,7 +7632,7 @@
         <v>60205</v>
       </c>
       <c r="B225" t="s">
-        <v>926</v>
+        <v>473</v>
       </c>
       <c r="C225">
         <v>7.7786698341369629</v>
@@ -7644,7 +7646,7 @@
         <v>60206</v>
       </c>
       <c r="B226" t="s">
-        <v>927</v>
+        <v>585</v>
       </c>
       <c r="C226">
         <v>7.7315797805786133</v>
@@ -7658,7 +7660,7 @@
         <v>60207</v>
       </c>
       <c r="B227" t="s">
-        <v>928</v>
+        <v>586</v>
       </c>
       <c r="C227">
         <v>7.684539794921875</v>
@@ -7672,7 +7674,7 @@
         <v>60301</v>
       </c>
       <c r="B228" t="s">
-        <v>929</v>
+        <v>498</v>
       </c>
       <c r="C228">
         <v>7.7866702079772949</v>
@@ -7686,7 +7688,7 @@
         <v>60302</v>
       </c>
       <c r="B229" t="s">
-        <v>930</v>
+        <v>331</v>
       </c>
       <c r="C229">
         <v>7.727869987487793</v>
@@ -7700,7 +7702,7 @@
         <v>60303</v>
       </c>
       <c r="B230" t="s">
-        <v>931</v>
+        <v>327</v>
       </c>
       <c r="C230">
         <v>7.7123398780822754</v>
@@ -7714,7 +7716,7 @@
         <v>60304</v>
       </c>
       <c r="B231" t="s">
-        <v>932</v>
+        <v>333</v>
       </c>
       <c r="C231">
         <v>7.6854100227355957</v>
@@ -7728,7 +7730,7 @@
         <v>60305</v>
       </c>
       <c r="B232" t="s">
-        <v>918</v>
+        <v>419</v>
       </c>
       <c r="C232">
         <v>7.7487201690673828</v>
@@ -7742,7 +7744,7 @@
         <v>60306</v>
       </c>
       <c r="B233" t="s">
-        <v>933</v>
+        <v>441</v>
       </c>
       <c r="C233">
         <v>7.6011199951171875</v>
@@ -7756,7 +7758,7 @@
         <v>60307</v>
       </c>
       <c r="B234" t="s">
-        <v>934</v>
+        <v>490</v>
       </c>
       <c r="C234">
         <v>7.793910026550293</v>
@@ -7770,7 +7772,7 @@
         <v>60308</v>
       </c>
       <c r="B235" t="s">
-        <v>935</v>
+        <v>491</v>
       </c>
       <c r="C235">
         <v>7.7099699974060059</v>
@@ -7784,7 +7786,7 @@
         <v>60309</v>
       </c>
       <c r="B236" t="s">
-        <v>936</v>
+        <v>462</v>
       </c>
       <c r="C236">
         <v>7.6325101852416992</v>
@@ -7798,7 +7800,7 @@
         <v>60401</v>
       </c>
       <c r="B237" t="s">
-        <v>937</v>
+        <v>534</v>
       </c>
       <c r="C237">
         <v>7.9543800354003906</v>
@@ -7812,7 +7814,7 @@
         <v>60402</v>
       </c>
       <c r="B238" t="s">
-        <v>938</v>
+        <v>268</v>
       </c>
       <c r="C238">
         <v>7.8309698104858398</v>
@@ -7826,7 +7828,7 @@
         <v>60403</v>
       </c>
       <c r="B239" t="s">
-        <v>939</v>
+        <v>495</v>
       </c>
       <c r="C239">
         <v>7.9272499084472656</v>
@@ -7840,7 +7842,7 @@
         <v>60404</v>
       </c>
       <c r="B240" t="s">
-        <v>741</v>
+        <v>32</v>
       </c>
       <c r="C240">
         <v>7.9790301322937012</v>
@@ -7854,7 +7856,7 @@
         <v>60405</v>
       </c>
       <c r="B241" t="s">
-        <v>940</v>
+        <v>556</v>
       </c>
       <c r="C241">
         <v>8.0331897735595703</v>
@@ -7868,7 +7870,7 @@
         <v>60406</v>
       </c>
       <c r="B242" t="s">
-        <v>941</v>
+        <v>372</v>
       </c>
       <c r="C242">
         <v>7.8372898101806641</v>
@@ -7882,7 +7884,7 @@
         <v>60407</v>
       </c>
       <c r="B243" t="s">
-        <v>942</v>
+        <v>508</v>
       </c>
       <c r="C243">
         <v>7.8861799240112305</v>
@@ -7896,7 +7898,7 @@
         <v>60501</v>
       </c>
       <c r="B244" t="s">
-        <v>943</v>
+        <v>545</v>
       </c>
       <c r="C244">
         <v>8.0192098617553711</v>
@@ -7910,7 +7912,7 @@
         <v>60502</v>
       </c>
       <c r="B245" t="s">
-        <v>729</v>
+        <v>22</v>
       </c>
       <c r="C245">
         <v>8.0270900726318359</v>
@@ -7924,7 +7926,7 @@
         <v>60503</v>
       </c>
       <c r="B246" t="s">
-        <v>944</v>
+        <v>489</v>
       </c>
       <c r="C246">
         <v>7.9848198890686035</v>
@@ -7938,7 +7940,7 @@
         <v>60504</v>
       </c>
       <c r="B247" t="s">
-        <v>945</v>
+        <v>479</v>
       </c>
       <c r="C247">
         <v>7.9631099700927734</v>
@@ -7952,7 +7954,7 @@
         <v>60505</v>
       </c>
       <c r="B248" t="s">
-        <v>946</v>
+        <v>544</v>
       </c>
       <c r="C248">
         <v>8.0728797912597656</v>
@@ -7966,7 +7968,7 @@
         <v>60506</v>
       </c>
       <c r="B249" t="s">
-        <v>947</v>
+        <v>566</v>
       </c>
       <c r="C249">
         <v>8.010310173034668</v>
@@ -7980,7 +7982,7 @@
         <v>60507</v>
       </c>
       <c r="B250" t="s">
-        <v>948</v>
+        <v>569</v>
       </c>
       <c r="C250">
         <v>8.0693397521972656</v>
@@ -7994,7 +7996,7 @@
         <v>60601</v>
       </c>
       <c r="B251" t="s">
-        <v>949</v>
+        <v>558</v>
       </c>
       <c r="C251">
         <v>7.9153499603271484</v>
@@ -8008,7 +8010,7 @@
         <v>60602</v>
       </c>
       <c r="B252" t="s">
-        <v>950</v>
+        <v>457</v>
       </c>
       <c r="C252">
         <v>7.8813700675964355</v>
@@ -8022,7 +8024,7 @@
         <v>60603</v>
       </c>
       <c r="B253" t="s">
-        <v>951</v>
+        <v>359</v>
       </c>
       <c r="C253">
         <v>7.9516801834106445</v>
@@ -8036,7 +8038,7 @@
         <v>60604</v>
       </c>
       <c r="B254" t="s">
-        <v>952</v>
+        <v>322</v>
       </c>
       <c r="C254">
         <v>7.9321198463439941</v>
@@ -8050,7 +8052,7 @@
         <v>60605</v>
       </c>
       <c r="B255" t="s">
-        <v>953</v>
+        <v>362</v>
       </c>
       <c r="C255">
         <v>7.9299402236938477</v>
@@ -8064,7 +8066,7 @@
         <v>60606</v>
       </c>
       <c r="B256" t="s">
-        <v>954</v>
+        <v>336</v>
       </c>
       <c r="C256">
         <v>7.8960299491882324</v>
@@ -8078,7 +8080,7 @@
         <v>60607</v>
       </c>
       <c r="B257" t="s">
-        <v>955</v>
+        <v>608</v>
       </c>
       <c r="C257">
         <v>7.8671698570251465</v>
@@ -8092,7 +8094,7 @@
         <v>60608</v>
       </c>
       <c r="B258" t="s">
-        <v>956</v>
+        <v>592</v>
       </c>
       <c r="C258">
         <v>7.8388800621032715</v>
@@ -8106,7 +8108,7 @@
         <v>60701</v>
       </c>
       <c r="B259" t="s">
-        <v>957</v>
+        <v>635</v>
       </c>
       <c r="C259">
         <v>8.1085395812988281</v>
@@ -8120,7 +8122,7 @@
         <v>60702</v>
       </c>
       <c r="B260" t="s">
-        <v>958</v>
+        <v>288</v>
       </c>
       <c r="C260">
         <v>8.0819196701049805</v>
@@ -8134,7 +8136,7 @@
         <v>60703</v>
       </c>
       <c r="B261" t="s">
-        <v>959</v>
+        <v>369</v>
       </c>
       <c r="C261">
         <v>8.1161298751831055</v>
@@ -8148,7 +8150,7 @@
         <v>60704</v>
       </c>
       <c r="B262" t="s">
-        <v>960</v>
+        <v>352</v>
       </c>
       <c r="C262">
         <v>8.0631704330444336</v>
@@ -8162,7 +8164,7 @@
         <v>60705</v>
       </c>
       <c r="B263" t="s">
-        <v>961</v>
+        <v>488</v>
       </c>
       <c r="C263">
         <v>8.1112899780273438</v>
@@ -8176,7 +8178,7 @@
         <v>70101</v>
       </c>
       <c r="B264" t="s">
-        <v>962</v>
+        <v>391</v>
       </c>
       <c r="C264">
         <v>7.8160600662231445</v>
@@ -8190,7 +8192,7 @@
         <v>70102</v>
       </c>
       <c r="B265" t="s">
-        <v>963</v>
+        <v>344</v>
       </c>
       <c r="C265">
         <v>7.8507599830627441</v>
@@ -8204,7 +8206,7 @@
         <v>70103</v>
       </c>
       <c r="B266" t="s">
-        <v>964</v>
+        <v>354</v>
       </c>
       <c r="C266">
         <v>7.6821498870849609</v>
@@ -8218,7 +8220,7 @@
         <v>70104</v>
       </c>
       <c r="B267" t="s">
-        <v>965</v>
+        <v>392</v>
       </c>
       <c r="C267">
         <v>7.7998900413513184</v>
@@ -8232,7 +8234,7 @@
         <v>70105</v>
       </c>
       <c r="B268" t="s">
-        <v>966</v>
+        <v>423</v>
       </c>
       <c r="C268">
         <v>7.8415398597717285</v>
@@ -8246,7 +8248,7 @@
         <v>70106</v>
       </c>
       <c r="B269" t="s">
-        <v>967</v>
+        <v>438</v>
       </c>
       <c r="C269">
         <v>7.8063797950744629</v>
@@ -8260,7 +8262,7 @@
         <v>70107</v>
       </c>
       <c r="B270" t="s">
-        <v>968</v>
+        <v>471</v>
       </c>
       <c r="C270">
         <v>7.7336301803588867</v>
@@ -8274,7 +8276,7 @@
         <v>70108</v>
       </c>
       <c r="B271" t="s">
-        <v>969</v>
+        <v>476</v>
       </c>
       <c r="C271">
         <v>7.7667198181152344</v>
@@ -8288,7 +8290,7 @@
         <v>70109</v>
       </c>
       <c r="B272" t="s">
-        <v>970</v>
+        <v>348</v>
       </c>
       <c r="C272">
         <v>7.7778301239013672</v>
@@ -8302,7 +8304,7 @@
         <v>70110</v>
       </c>
       <c r="B273" t="s">
-        <v>971</v>
+        <v>557</v>
       </c>
       <c r="C273">
         <v>7.7751398086547852</v>
@@ -8316,7 +8318,7 @@
         <v>70201</v>
       </c>
       <c r="B274" t="s">
-        <v>972</v>
+        <v>469</v>
       </c>
       <c r="C274">
         <v>7.7738199234008789</v>
@@ -8330,7 +8332,7 @@
         <v>70202</v>
       </c>
       <c r="B275" t="s">
-        <v>973</v>
+        <v>189</v>
       </c>
       <c r="C275">
         <v>7.5852699279785156</v>
@@ -8344,7 +8346,7 @@
         <v>70203</v>
       </c>
       <c r="B276" t="s">
-        <v>974</v>
+        <v>199</v>
       </c>
       <c r="C276">
         <v>7.5966701507568359</v>
@@ -8358,7 +8360,7 @@
         <v>70204</v>
       </c>
       <c r="B277" t="s">
-        <v>975</v>
+        <v>332</v>
       </c>
       <c r="C277">
         <v>7.7300200462341309</v>
@@ -8372,7 +8374,7 @@
         <v>70205</v>
       </c>
       <c r="B278" t="s">
-        <v>976</v>
+        <v>337</v>
       </c>
       <c r="C278">
         <v>7.7404398918151855</v>
@@ -8386,7 +8388,7 @@
         <v>70206</v>
       </c>
       <c r="B279" t="s">
-        <v>977</v>
+        <v>355</v>
       </c>
       <c r="C279">
         <v>7.788179874420166</v>
@@ -8400,7 +8402,7 @@
         <v>70207</v>
       </c>
       <c r="B280" t="s">
-        <v>978</v>
+        <v>358</v>
       </c>
       <c r="C280">
         <v>7.6714801788330078</v>
@@ -8414,7 +8416,7 @@
         <v>70208</v>
       </c>
       <c r="B281" t="s">
-        <v>953</v>
+        <v>362</v>
       </c>
       <c r="C281">
         <v>7.7058000564575195</v>
@@ -8428,7 +8430,7 @@
         <v>70209</v>
       </c>
       <c r="B282" t="s">
-        <v>979</v>
+        <v>433</v>
       </c>
       <c r="C282">
         <v>7.7317900657653809</v>
@@ -8442,7 +8444,7 @@
         <v>70210</v>
       </c>
       <c r="B283" t="s">
-        <v>980</v>
+        <v>435</v>
       </c>
       <c r="C283">
         <v>7.5628299713134766</v>
@@ -8456,7 +8458,7 @@
         <v>70211</v>
       </c>
       <c r="B284" t="s">
-        <v>981</v>
+        <v>128</v>
       </c>
       <c r="C284">
         <v>7.7019200325012207</v>
@@ -8470,7 +8472,7 @@
         <v>70212</v>
       </c>
       <c r="B285" t="s">
-        <v>982</v>
+        <v>447</v>
       </c>
       <c r="C285">
         <v>7.7522602081298828</v>
@@ -8484,7 +8486,7 @@
         <v>70213</v>
       </c>
       <c r="B286" t="s">
-        <v>983</v>
+        <v>468</v>
       </c>
       <c r="C286">
         <v>7.7677397727966309</v>
@@ -8498,7 +8500,7 @@
         <v>70214</v>
       </c>
       <c r="B287" t="s">
-        <v>984</v>
+        <v>470</v>
       </c>
       <c r="C287">
         <v>7.807650089263916</v>
@@ -8512,7 +8514,7 @@
         <v>70215</v>
       </c>
       <c r="B288" t="s">
-        <v>985</v>
+        <v>524</v>
       </c>
       <c r="C288">
         <v>7.519320011138916</v>
@@ -8526,7 +8528,7 @@
         <v>70216</v>
       </c>
       <c r="B289" t="s">
-        <v>799</v>
+        <v>67</v>
       </c>
       <c r="C289">
         <v>7.6824002265930176</v>
@@ -8540,7 +8542,7 @@
         <v>70217</v>
       </c>
       <c r="B290" t="s">
-        <v>986</v>
+        <v>555</v>
       </c>
       <c r="C290">
         <v>7.7153100967407227</v>
@@ -8554,7 +8556,7 @@
         <v>70218</v>
       </c>
       <c r="B291" t="s">
-        <v>987</v>
+        <v>598</v>
       </c>
       <c r="C291">
         <v>7.7137198448181152</v>
@@ -8568,7 +8570,7 @@
         <v>70219</v>
       </c>
       <c r="B292" t="s">
-        <v>988</v>
+        <v>620</v>
       </c>
       <c r="C292">
         <v>7.6799402236938477</v>
@@ -8582,7 +8584,7 @@
         <v>70220</v>
       </c>
       <c r="B293" t="s">
-        <v>989</v>
+        <v>627</v>
       </c>
       <c r="C293">
         <v>7.6467900276184082</v>
@@ -8596,7 +8598,7 @@
         <v>70221</v>
       </c>
       <c r="B294" t="s">
-        <v>838</v>
+        <v>91</v>
       </c>
       <c r="C294">
         <v>7.7473502159118652</v>
@@ -8610,7 +8612,7 @@
         <v>70222</v>
       </c>
       <c r="B295" t="s">
-        <v>990</v>
+        <v>640</v>
       </c>
       <c r="C295">
         <v>7.7464799880981445</v>
@@ -8624,7 +8626,7 @@
         <v>70223</v>
       </c>
       <c r="B296" t="s">
-        <v>991</v>
+        <v>672</v>
       </c>
       <c r="C296">
         <v>7.6073298454284668</v>
@@ -8638,7 +8640,7 @@
         <v>70224</v>
       </c>
       <c r="B297" t="s">
-        <v>992</v>
+        <v>673</v>
       </c>
       <c r="C297">
         <v>7.627039909362793</v>
@@ -8652,7 +8654,7 @@
         <v>70301</v>
       </c>
       <c r="B298" t="s">
-        <v>993</v>
+        <v>451</v>
       </c>
       <c r="C298">
         <v>7.8972902297973633</v>
@@ -8666,7 +8668,7 @@
         <v>70302</v>
       </c>
       <c r="B299" t="s">
-        <v>788</v>
+        <v>347</v>
       </c>
       <c r="C299">
         <v>7.8319301605224609</v>
@@ -8680,7 +8682,7 @@
         <v>70303</v>
       </c>
       <c r="B300" t="s">
-        <v>994</v>
+        <v>421</v>
       </c>
       <c r="C300">
         <v>7.8326401710510254</v>
@@ -8694,7 +8696,7 @@
         <v>70304</v>
       </c>
       <c r="B301" t="s">
-        <v>995</v>
+        <v>428</v>
       </c>
       <c r="C301">
         <v>7.8809800148010254</v>
@@ -8708,7 +8710,7 @@
         <v>70305</v>
       </c>
       <c r="B302" t="s">
-        <v>996</v>
+        <v>458</v>
       </c>
       <c r="C302">
         <v>7.8047199249267578</v>
@@ -8722,7 +8724,7 @@
         <v>70306</v>
       </c>
       <c r="B303" t="s">
-        <v>997</v>
+        <v>460</v>
       </c>
       <c r="C303">
         <v>7.8208699226379395</v>
@@ -8736,7 +8738,7 @@
         <v>70307</v>
       </c>
       <c r="B304" t="s">
-        <v>860</v>
+        <v>485</v>
       </c>
       <c r="C304">
         <v>7.8889398574829102</v>
@@ -8750,7 +8752,7 @@
         <v>70308</v>
       </c>
       <c r="B305" t="s">
-        <v>998</v>
+        <v>497</v>
       </c>
       <c r="C305">
         <v>7.9118499755859375</v>
@@ -8764,7 +8766,7 @@
         <v>70309</v>
       </c>
       <c r="B306" t="s">
-        <v>999</v>
+        <v>481</v>
       </c>
       <c r="C306">
         <v>7.9098601341247559</v>
@@ -8778,7 +8780,7 @@
         <v>70310</v>
       </c>
       <c r="B307" t="s">
-        <v>955</v>
+        <v>608</v>
       </c>
       <c r="C307">
         <v>7.8408398628234863</v>
@@ -8792,7 +8794,7 @@
         <v>70311</v>
       </c>
       <c r="B308" t="s">
-        <v>1000</v>
+        <v>631</v>
       </c>
       <c r="C308">
         <v>7.9552998542785645</v>
@@ -8806,7 +8808,7 @@
         <v>70312</v>
       </c>
       <c r="B309" t="s">
-        <v>1001</v>
+        <v>659</v>
       </c>
       <c r="C309">
         <v>7.8511600494384766</v>
@@ -8820,7 +8822,7 @@
         <v>70313</v>
       </c>
       <c r="B310" t="s">
-        <v>1002</v>
+        <v>137</v>
       </c>
       <c r="C310">
         <v>7.8206300735473633</v>
@@ -8834,7 +8836,7 @@
         <v>70314</v>
       </c>
       <c r="B311" t="s">
-        <v>1003</v>
+        <v>679</v>
       </c>
       <c r="C311">
         <v>7.809999942779541</v>
@@ -8848,7 +8850,7 @@
         <v>70401</v>
       </c>
       <c r="B312" t="s">
-        <v>1004</v>
+        <v>500</v>
       </c>
       <c r="C312">
         <v>7.7290902137756348</v>
@@ -8862,7 +8864,7 @@
         <v>70402</v>
       </c>
       <c r="B313" t="s">
-        <v>1005</v>
+        <v>185</v>
       </c>
       <c r="C313">
         <v>7.7140898704528809</v>
@@ -8876,7 +8878,7 @@
         <v>70403</v>
       </c>
       <c r="B314" t="s">
-        <v>1006</v>
+        <v>190</v>
       </c>
       <c r="C314">
         <v>7.570620059967041</v>
@@ -8890,7 +8892,7 @@
         <v>70404</v>
       </c>
       <c r="B315" t="s">
-        <v>1007</v>
+        <v>299</v>
       </c>
       <c r="C315">
         <v>7.7470598220825195</v>
@@ -8904,7 +8906,7 @@
         <v>70405</v>
       </c>
       <c r="B316" t="s">
-        <v>1008</v>
+        <v>287</v>
       </c>
       <c r="C316">
         <v>7.784599781036377</v>
@@ -8918,7 +8920,7 @@
         <v>70406</v>
       </c>
       <c r="B317" t="s">
-        <v>932</v>
+        <v>333</v>
       </c>
       <c r="C317">
         <v>7.7759799957275391</v>
@@ -8932,7 +8934,7 @@
         <v>70407</v>
       </c>
       <c r="B318" t="s">
-        <v>1009</v>
+        <v>377</v>
       </c>
       <c r="C318">
         <v>7.6837301254272461</v>
@@ -8946,7 +8948,7 @@
         <v>70408</v>
       </c>
       <c r="B319" t="s">
-        <v>1010</v>
+        <v>209</v>
       </c>
       <c r="C319">
         <v>7.6373400688171387</v>
@@ -8960,7 +8962,7 @@
         <v>70409</v>
       </c>
       <c r="B320" t="s">
-        <v>1011</v>
+        <v>264</v>
       </c>
       <c r="C320">
         <v>7.6760201454162598</v>
@@ -8974,7 +8976,7 @@
         <v>70410</v>
       </c>
       <c r="B321" t="s">
-        <v>1012</v>
+        <v>480</v>
       </c>
       <c r="C321">
         <v>7.6359901428222656</v>
@@ -8988,7 +8990,7 @@
         <v>70411</v>
       </c>
       <c r="B322" t="s">
-        <v>1013</v>
+        <v>512</v>
       </c>
       <c r="C322">
         <v>7.616569995880127</v>
@@ -9002,7 +9004,7 @@
         <v>70501</v>
       </c>
       <c r="B323" t="s">
-        <v>1014</v>
+        <v>551</v>
       </c>
       <c r="C323">
         <v>7.4986600875854492</v>
@@ -9016,7 +9018,7 @@
         <v>70502</v>
       </c>
       <c r="B324" t="s">
-        <v>1015</v>
+        <v>486</v>
       </c>
       <c r="C324">
         <v>7.4956002235412598</v>
@@ -9030,7 +9032,7 @@
         <v>70503</v>
       </c>
       <c r="B325" t="s">
-        <v>1016</v>
+        <v>506</v>
       </c>
       <c r="C325">
         <v>7.5845799446105957</v>
@@ -9044,7 +9046,7 @@
         <v>70504</v>
       </c>
       <c r="B326" t="s">
-        <v>1017</v>
+        <v>582</v>
       </c>
       <c r="C326">
         <v>7.5954098701477051</v>
@@ -9058,7 +9060,7 @@
         <v>70505</v>
       </c>
       <c r="B327" t="s">
-        <v>1018</v>
+        <v>537</v>
       </c>
       <c r="C327">
         <v>7.4756999015808105</v>
@@ -9072,7 +9074,7 @@
         <v>70601</v>
       </c>
       <c r="B328" t="s">
-        <v>1019</v>
+        <v>564</v>
       </c>
       <c r="C328">
         <v>7.6487398147583008</v>
@@ -9086,7 +9088,7 @@
         <v>70602</v>
       </c>
       <c r="B329" t="s">
-        <v>1020</v>
+        <v>329</v>
       </c>
       <c r="C329">
         <v>7.6134200096130371</v>
@@ -9100,7 +9102,7 @@
         <v>70603</v>
       </c>
       <c r="B330" t="s">
-        <v>1021</v>
+        <v>453</v>
       </c>
       <c r="C330">
         <v>7.5806398391723633</v>
@@ -9114,7 +9116,7 @@
         <v>70604</v>
       </c>
       <c r="B331" t="s">
-        <v>822</v>
+        <v>543</v>
       </c>
       <c r="C331">
         <v>7.7012300491333008</v>
@@ -9128,7 +9130,7 @@
         <v>70605</v>
       </c>
       <c r="B332" t="s">
-        <v>1022</v>
+        <v>546</v>
       </c>
       <c r="C332">
         <v>7.596560001373291</v>
@@ -9142,7 +9144,7 @@
         <v>70701</v>
       </c>
       <c r="B333" t="s">
-        <v>1023</v>
+        <v>657</v>
       </c>
       <c r="C333">
         <v>7.3755598068237305</v>
@@ -9156,7 +9158,7 @@
         <v>70702</v>
       </c>
       <c r="B334" t="s">
-        <v>1024</v>
+        <v>160</v>
       </c>
       <c r="C334">
         <v>7.5226998329162598</v>
@@ -9170,7 +9172,7 @@
         <v>70703</v>
       </c>
       <c r="B335" t="s">
-        <v>1025</v>
+        <v>242</v>
       </c>
       <c r="C335">
         <v>7.4635601043701172</v>
@@ -9184,7 +9186,7 @@
         <v>70704</v>
       </c>
       <c r="B336" t="s">
-        <v>1026</v>
+        <v>325</v>
       </c>
       <c r="C336">
         <v>7.4238600730895996</v>
@@ -9198,7 +9200,7 @@
         <v>70705</v>
       </c>
       <c r="B337" t="s">
-        <v>1027</v>
+        <v>326</v>
       </c>
       <c r="C337">
         <v>7.4487900733947754</v>
@@ -9212,7 +9214,7 @@
         <v>70706</v>
       </c>
       <c r="B338" t="s">
-        <v>1028</v>
+        <v>341</v>
       </c>
       <c r="C338">
         <v>7.4372100830078125</v>
@@ -9226,7 +9228,7 @@
         <v>70707</v>
       </c>
       <c r="B339" t="s">
-        <v>1029</v>
+        <v>382</v>
       </c>
       <c r="C339">
         <v>7.5130701065063477</v>
@@ -9240,7 +9242,7 @@
         <v>70708</v>
       </c>
       <c r="B340" t="s">
-        <v>1030</v>
+        <v>390</v>
       </c>
       <c r="C340">
         <v>7.3377799987792969</v>
@@ -9254,7 +9256,7 @@
         <v>70709</v>
       </c>
       <c r="B341" t="s">
-        <v>1031</v>
+        <v>450</v>
       </c>
       <c r="C341">
         <v>7.4542698860168457</v>
@@ -9268,7 +9270,7 @@
         <v>70710</v>
       </c>
       <c r="B342" t="s">
-        <v>1032</v>
+        <v>237</v>
       </c>
       <c r="C342">
         <v>7.2905697822570801</v>
@@ -9282,7 +9284,7 @@
         <v>70711</v>
       </c>
       <c r="B343" t="s">
-        <v>1033</v>
+        <v>407</v>
       </c>
       <c r="C343">
         <v>7.416719913482666</v>
@@ -9296,7 +9298,7 @@
         <v>130103</v>
       </c>
       <c r="B344" t="s">
-        <v>1036</v>
+        <v>530</v>
       </c>
       <c r="C344">
         <v>9.0416803359985352</v>
@@ -9310,7 +9312,7 @@
         <v>41008</v>
       </c>
       <c r="B345" t="s">
-        <v>875</v>
+        <v>116</v>
       </c>
       <c r="C345">
         <v>8.8449602127075195</v>
@@ -9324,7 +9326,7 @@
         <v>130105</v>
       </c>
       <c r="B346" t="s">
-        <v>1037</v>
+        <v>674</v>
       </c>
       <c r="C346">
         <v>8.9176597595214844</v>
@@ -9338,7 +9340,7 @@
         <v>130106</v>
       </c>
       <c r="B347" t="s">
-        <v>1038</v>
+        <v>683</v>
       </c>
       <c r="C347">
         <v>8.9017696380615234</v>
@@ -9352,7 +9354,7 @@
         <v>130107</v>
       </c>
       <c r="B348" t="s">
-        <v>1039</v>
+        <v>226</v>
       </c>
       <c r="C348">
         <v>8.9947795867919922</v>
@@ -9366,7 +9368,7 @@
         <v>130108</v>
       </c>
       <c r="B349" t="s">
-        <v>1040</v>
+        <v>274</v>
       </c>
       <c r="C349">
         <v>8.9339103698730469</v>
@@ -9380,7 +9382,7 @@
         <v>80201</v>
       </c>
       <c r="B350" t="s">
-        <v>1041</v>
+        <v>628</v>
       </c>
       <c r="C350">
         <v>8.4268703460693359</v>
@@ -9394,7 +9396,7 @@
         <v>80202</v>
       </c>
       <c r="B351" t="s">
-        <v>1042</v>
+        <v>424</v>
       </c>
       <c r="C351">
         <v>8.3507699966430664</v>
@@ -9408,7 +9410,7 @@
         <v>80203</v>
       </c>
       <c r="B352" t="s">
-        <v>1043</v>
+        <v>427</v>
       </c>
       <c r="C352">
         <v>8.2937698364257813</v>
@@ -9422,7 +9424,7 @@
         <v>80204</v>
       </c>
       <c r="B353" t="s">
-        <v>1044</v>
+        <v>431</v>
       </c>
       <c r="C353">
         <v>8.3427000045776367</v>
@@ -9436,7 +9438,7 @@
         <v>80205</v>
       </c>
       <c r="B354" t="s">
-        <v>1045</v>
+        <v>552</v>
       </c>
       <c r="C354">
         <v>8.3002395629882813</v>
@@ -9450,7 +9452,7 @@
         <v>80206</v>
       </c>
       <c r="B355" t="s">
-        <v>1046</v>
+        <v>609</v>
       </c>
       <c r="C355">
         <v>8.6138496398925781</v>
@@ -9464,7 +9466,7 @@
         <v>130301</v>
       </c>
       <c r="B356" t="s">
-        <v>1047</v>
+        <v>250</v>
       </c>
       <c r="C356">
         <v>8.7658300399780273</v>
@@ -9478,7 +9480,7 @@
         <v>130302</v>
       </c>
       <c r="B357" t="s">
-        <v>1048</v>
+        <v>230</v>
       </c>
       <c r="C357">
         <v>8.8097000122070313</v>
@@ -9492,7 +9494,7 @@
         <v>130303</v>
       </c>
       <c r="B358" t="s">
-        <v>1049</v>
+        <v>239</v>
       </c>
       <c r="C358">
         <v>8.6926803588867188</v>
@@ -9506,7 +9508,7 @@
         <v>130304</v>
       </c>
       <c r="B359" t="s">
-        <v>1050</v>
+        <v>260</v>
       </c>
       <c r="C359">
         <v>8.7251796722412109</v>
@@ -9520,7 +9522,7 @@
         <v>70705</v>
       </c>
       <c r="B360" t="s">
-        <v>1027</v>
+        <v>326</v>
       </c>
       <c r="C360">
         <v>7.4487900733947754</v>
@@ -9534,7 +9536,7 @@
         <v>130308</v>
       </c>
       <c r="B361" t="s">
-        <v>1053</v>
+        <v>449</v>
       </c>
       <c r="C361">
         <v>8.9119701385498047</v>
@@ -9548,7 +9550,7 @@
         <v>130309</v>
       </c>
       <c r="B362" t="s">
-        <v>1054</v>
+        <v>466</v>
       </c>
       <c r="C362">
         <v>8.7975502014160156</v>
@@ -9562,7 +9564,7 @@
         <v>130311</v>
       </c>
       <c r="B363" t="s">
-        <v>1056</v>
+        <v>678</v>
       </c>
       <c r="C363">
         <v>8.8043403625488281</v>
@@ -9576,7 +9578,7 @@
         <v>130312</v>
       </c>
       <c r="B364" t="s">
-        <v>1057</v>
+        <v>680</v>
       </c>
       <c r="C364">
         <v>8.7917003631591797</v>
@@ -9590,7 +9592,7 @@
         <v>30114</v>
       </c>
       <c r="B365" t="s">
-        <v>778</v>
+        <v>54</v>
       </c>
       <c r="C365">
         <v>9.2052202224731445</v>
@@ -9604,7 +9606,7 @@
         <v>130401</v>
       </c>
       <c r="B366" t="s">
-        <v>1058</v>
+        <v>275</v>
       </c>
       <c r="C366">
         <v>8.5837202072143555</v>
@@ -9618,7 +9620,7 @@
         <v>130402</v>
       </c>
       <c r="B367" t="s">
-        <v>1059</v>
+        <v>200</v>
       </c>
       <c r="C367">
         <v>8.6241798400878906</v>
@@ -9632,7 +9634,7 @@
         <v>130403</v>
       </c>
       <c r="B368" t="s">
-        <v>1060</v>
+        <v>222</v>
       </c>
       <c r="C368">
         <v>8.6405096054077148</v>
@@ -9646,7 +9648,7 @@
         <v>20202</v>
       </c>
       <c r="B369" t="s">
-        <v>729</v>
+        <v>22</v>
       </c>
       <c r="C369">
         <v>8.5438604354858398</v>
@@ -9660,7 +9662,7 @@
         <v>41101</v>
       </c>
       <c r="B370" t="s">
-        <v>1063</v>
+        <v>117</v>
       </c>
       <c r="C370">
         <v>8.2079601287841797</v>
@@ -9674,7 +9676,7 @@
         <v>130408</v>
       </c>
       <c r="B371" t="s">
-        <v>1064</v>
+        <v>528</v>
       </c>
       <c r="C371">
         <v>8.5583600997924805</v>
@@ -9688,7 +9690,7 @@
         <v>130409</v>
       </c>
       <c r="B372" t="s">
-        <v>1065</v>
+        <v>580</v>
       </c>
       <c r="C372">
         <v>8.6051797866821289</v>
@@ -9702,7 +9704,7 @@
         <v>130410</v>
       </c>
       <c r="B373" t="s">
-        <v>1066</v>
+        <v>610</v>
       </c>
       <c r="C373">
         <v>8.6699495315551758</v>
@@ -9716,7 +9718,7 @@
         <v>80501</v>
       </c>
       <c r="B374" t="s">
-        <v>1068</v>
+        <v>1287</v>
       </c>
       <c r="C374">
         <v>9.1433296203613281</v>
@@ -9730,7 +9732,7 @@
         <v>80502</v>
       </c>
       <c r="B375" t="s">
-        <v>1069</v>
+        <v>246</v>
       </c>
       <c r="C375">
         <v>9.2975502014160156</v>
@@ -9743,8 +9745,8 @@
       <c r="A376" s="2">
         <v>80501</v>
       </c>
-      <c r="B376" s="2" t="s">
-        <v>1070</v>
+      <c r="B376" t="s">
+        <v>696</v>
       </c>
       <c r="C376">
         <v>9.1433296203613281</v>
@@ -9758,7 +9760,7 @@
         <v>80504</v>
       </c>
       <c r="B377" t="s">
-        <v>1071</v>
+        <v>353</v>
       </c>
       <c r="C377">
         <v>9.1442098617553711</v>
@@ -9772,7 +9774,7 @@
         <v>80505</v>
       </c>
       <c r="B378" t="s">
-        <v>1072</v>
+        <v>464</v>
       </c>
       <c r="C378">
         <v>9.2715301513671875</v>
@@ -9786,7 +9788,7 @@
         <v>80506</v>
       </c>
       <c r="B379" t="s">
-        <v>1073</v>
+        <v>632</v>
       </c>
       <c r="C379">
         <v>9.0107498168945313</v>
@@ -9800,7 +9802,7 @@
         <v>80507</v>
       </c>
       <c r="B380" t="s">
-        <v>1074</v>
+        <v>297</v>
       </c>
       <c r="C380">
         <v>9.1462202072143555</v>
@@ -9814,7 +9816,7 @@
         <v>80508</v>
       </c>
       <c r="B381" t="s">
-        <v>1075</v>
+        <v>658</v>
       </c>
       <c r="C381">
         <v>8.9458198547363281</v>
@@ -9828,7 +9830,7 @@
         <v>80601</v>
       </c>
       <c r="B382" t="s">
-        <v>1076</v>
+        <v>281</v>
       </c>
       <c r="C382">
         <v>8.7515096664428711</v>
@@ -9842,7 +9844,7 @@
         <v>80602</v>
       </c>
       <c r="B383" t="s">
-        <v>1077</v>
+        <v>220</v>
       </c>
       <c r="C383">
         <v>8.5858001708984375</v>
@@ -9856,7 +9858,7 @@
         <v>80603</v>
       </c>
       <c r="B384" t="s">
-        <v>1078</v>
+        <v>387</v>
       </c>
       <c r="C384">
         <v>8.42510986328125</v>
@@ -9870,7 +9872,7 @@
         <v>80604</v>
       </c>
       <c r="B385" t="s">
-        <v>1079</v>
+        <v>548</v>
       </c>
       <c r="C385">
         <v>8.9014101028442383</v>
@@ -9884,7 +9886,7 @@
         <v>80605</v>
       </c>
       <c r="B386" t="s">
-        <v>1080</v>
+        <v>666</v>
       </c>
       <c r="C386">
         <v>8.8402900695800781</v>
@@ -9898,7 +9900,7 @@
         <v>130701</v>
       </c>
       <c r="B387" t="s">
-        <v>1081</v>
+        <v>196</v>
       </c>
       <c r="C387">
         <v>8.8785295486450195</v>
@@ -9912,7 +9914,7 @@
         <v>130703</v>
       </c>
       <c r="B388" t="s">
-        <v>1083</v>
+        <v>162</v>
       </c>
       <c r="C388">
         <v>9.1142997741699219</v>
@@ -9926,7 +9928,7 @@
         <v>130704</v>
       </c>
       <c r="B389" t="s">
-        <v>1084</v>
+        <v>174</v>
       </c>
       <c r="C389">
         <v>8.9561595916748047</v>
@@ -9940,7 +9942,7 @@
         <v>130705</v>
       </c>
       <c r="B390" t="s">
-        <v>1085</v>
+        <v>319</v>
       </c>
       <c r="C390">
         <v>8.9909296035766602</v>
@@ -9954,7 +9956,7 @@
         <v>20605</v>
       </c>
       <c r="B391" t="s">
-        <v>759</v>
+        <v>42</v>
       </c>
       <c r="C391">
         <v>8.4118204116821289</v>
@@ -9968,7 +9970,7 @@
         <v>130707</v>
       </c>
       <c r="B392" t="s">
-        <v>1086</v>
+        <v>378</v>
       </c>
       <c r="C392">
         <v>8.8380603790283203</v>
@@ -9982,7 +9984,7 @@
         <v>130708</v>
       </c>
       <c r="B393" t="s">
-        <v>1087</v>
+        <v>389</v>
       </c>
       <c r="C393">
         <v>8.8554000854492188</v>
@@ -9996,7 +9998,7 @@
         <v>130709</v>
       </c>
       <c r="B394" t="s">
-        <v>1088</v>
+        <v>227</v>
       </c>
       <c r="C394">
         <v>8.9459896087646484</v>
@@ -10010,7 +10012,7 @@
         <v>130710</v>
       </c>
       <c r="B395" t="s">
-        <v>1089</v>
+        <v>406</v>
       </c>
       <c r="C395">
         <v>8.9099502563476563</v>
@@ -10024,7 +10026,7 @@
         <v>130711</v>
       </c>
       <c r="B396" t="s">
-        <v>1090</v>
+        <v>408</v>
       </c>
       <c r="C396">
         <v>9.012660026550293</v>
@@ -10038,7 +10040,7 @@
         <v>130712</v>
       </c>
       <c r="B397" t="s">
-        <v>1091</v>
+        <v>444</v>
       </c>
       <c r="C397">
         <v>9.0235795974731445</v>
@@ -10052,7 +10054,7 @@
         <v>130714</v>
       </c>
       <c r="B398" t="s">
-        <v>1093</v>
+        <v>509</v>
       </c>
       <c r="C398">
         <v>9.0473098754882813</v>
@@ -10066,7 +10068,7 @@
         <v>130716</v>
       </c>
       <c r="B399" t="s">
-        <v>1095</v>
+        <v>562</v>
       </c>
       <c r="C399">
         <v>8.8227500915527344</v>
@@ -10080,7 +10082,7 @@
         <v>130717</v>
       </c>
       <c r="B400" t="s">
-        <v>1096</v>
+        <v>574</v>
       </c>
       <c r="C400">
         <v>8.874079704284668</v>
@@ -10094,7 +10096,7 @@
         <v>20209</v>
       </c>
       <c r="B401" t="s">
-        <v>736</v>
+        <v>27</v>
       </c>
       <c r="C401">
         <v>8.4932699203491211</v>
@@ -10108,7 +10110,7 @@
         <v>80801</v>
       </c>
       <c r="B402" t="s">
-        <v>1097</v>
+        <v>617</v>
       </c>
       <c r="C402">
         <v>8.9525003433227539</v>
@@ -10122,7 +10124,7 @@
         <v>80802</v>
       </c>
       <c r="B403" t="s">
-        <v>1098</v>
+        <v>335</v>
       </c>
       <c r="C403">
         <v>8.9502201080322266</v>
@@ -10136,7 +10138,7 @@
         <v>80803</v>
       </c>
       <c r="B404" t="s">
-        <v>1000</v>
+        <v>631</v>
       </c>
       <c r="C404">
         <v>8.9563302993774414</v>
@@ -10150,7 +10152,7 @@
         <v>80804</v>
       </c>
       <c r="B405" t="s">
-        <v>1099</v>
+        <v>429</v>
       </c>
       <c r="C405">
         <v>8.9686203002929688</v>
@@ -10164,7 +10166,7 @@
         <v>80805</v>
       </c>
       <c r="B406" t="s">
-        <v>1100</v>
+        <v>307</v>
       </c>
       <c r="C406">
         <v>8.9787998199462891</v>
@@ -10178,7 +10180,7 @@
         <v>80806</v>
       </c>
       <c r="B407" t="s">
-        <v>1101</v>
+        <v>205</v>
       </c>
       <c r="C407">
         <v>9.0120296478271484</v>
@@ -10192,7 +10194,7 @@
         <v>80807</v>
       </c>
       <c r="B408" t="s">
-        <v>885</v>
+        <v>122</v>
       </c>
       <c r="C408">
         <v>8.9848899841308594</v>
@@ -10206,7 +10208,7 @@
         <v>80808</v>
       </c>
       <c r="B409" t="s">
-        <v>1102</v>
+        <v>571</v>
       </c>
       <c r="C409">
         <v>9.0117101669311523</v>
@@ -10220,7 +10222,7 @@
         <v>80809</v>
       </c>
       <c r="B410" t="s">
-        <v>1103</v>
+        <v>301</v>
       </c>
       <c r="C410">
         <v>8.9909801483154297</v>
@@ -10234,7 +10236,7 @@
         <v>80810</v>
       </c>
       <c r="B411" t="s">
-        <v>1104</v>
+        <v>547</v>
       </c>
       <c r="C411">
         <v>9.013890266418457</v>
@@ -10248,7 +10250,7 @@
         <v>80811</v>
       </c>
       <c r="B412" t="s">
-        <v>1105</v>
+        <v>593</v>
       </c>
       <c r="C412">
         <v>9.0239496231079102</v>
@@ -10262,7 +10264,7 @@
         <v>80812</v>
       </c>
       <c r="B413" t="s">
-        <v>733</v>
+        <v>415</v>
       </c>
       <c r="C413">
         <v>9.0325002670288086</v>
@@ -10276,7 +10278,7 @@
         <v>80813</v>
       </c>
       <c r="B414" t="s">
-        <v>823</v>
+        <v>82</v>
       </c>
       <c r="C414">
         <v>9.0966596603393555</v>
@@ -10290,7 +10292,7 @@
         <v>80814</v>
       </c>
       <c r="B415" t="s">
-        <v>1106</v>
+        <v>167</v>
       </c>
       <c r="C415">
         <v>9.0874900817871094</v>
@@ -10303,8 +10305,8 @@
       <c r="A416" s="2">
         <v>80824</v>
       </c>
-      <c r="B416" s="2" t="s">
-        <v>1107</v>
+      <c r="B416" t="s">
+        <v>697</v>
       </c>
       <c r="C416">
         <v>9.3150796890258789</v>
@@ -10318,7 +10320,7 @@
         <v>80816</v>
       </c>
       <c r="B417" t="s">
-        <v>1108</v>
+        <v>459</v>
       </c>
       <c r="C417">
         <v>9.0896902084350586</v>
@@ -10332,7 +10334,7 @@
         <v>80817</v>
       </c>
       <c r="B418" t="s">
-        <v>1109</v>
+        <v>541</v>
       </c>
       <c r="C418">
         <v>9.1143198013305664</v>
@@ -10346,7 +10348,7 @@
         <v>80818</v>
       </c>
       <c r="B419" t="s">
-        <v>1110</v>
+        <v>625</v>
       </c>
       <c r="C419">
         <v>9.2171297073364258</v>
@@ -10360,7 +10362,7 @@
         <v>80819</v>
       </c>
       <c r="B420" t="s">
-        <v>1111</v>
+        <v>654</v>
       </c>
       <c r="C420">
         <v>9.1018600463867188</v>
@@ -10374,7 +10376,7 @@
         <v>80820</v>
       </c>
       <c r="B421" t="s">
-        <v>1112</v>
+        <v>463</v>
       </c>
       <c r="C421">
         <v>9.1074199676513672</v>
@@ -10388,7 +10390,7 @@
         <v>80821</v>
       </c>
       <c r="B422" t="s">
-        <v>1113</v>
+        <v>133</v>
       </c>
       <c r="C422">
         <v>9.1427297592163086</v>
@@ -10402,7 +10404,7 @@
         <v>80822</v>
       </c>
       <c r="B423" t="s">
-        <v>1114</v>
+        <v>151</v>
       </c>
       <c r="C423">
         <v>9.1323299407958984</v>
@@ -10416,7 +10418,7 @@
         <v>80823</v>
       </c>
       <c r="B424" t="s">
-        <v>1115</v>
+        <v>376</v>
       </c>
       <c r="C424">
         <v>9.1004400253295898</v>
@@ -10430,7 +10432,7 @@
         <v>130901</v>
       </c>
       <c r="B425" t="s">
-        <v>1116</v>
+        <v>616</v>
       </c>
       <c r="C425">
         <v>8.4925804138183594</v>
@@ -10444,7 +10446,7 @@
         <v>130902</v>
       </c>
       <c r="B426" t="s">
-        <v>1117</v>
+        <v>346</v>
       </c>
       <c r="C426">
         <v>8.5102100372314453</v>
@@ -10458,7 +10460,7 @@
         <v>90407</v>
       </c>
       <c r="B427" t="s">
-        <v>1118</v>
+        <v>350</v>
       </c>
       <c r="C427">
         <v>8.2213001251220703</v>
@@ -10472,7 +10474,7 @@
         <v>120508</v>
       </c>
       <c r="B428" t="s">
-        <v>1119</v>
+        <v>393</v>
       </c>
       <c r="C428">
         <v>8.5472602844238281</v>
@@ -10486,7 +10488,7 @@
         <v>130905</v>
       </c>
       <c r="B429" t="s">
-        <v>1120</v>
+        <v>426</v>
       </c>
       <c r="C429">
         <v>8.4738702774047852</v>
@@ -10500,7 +10502,7 @@
         <v>90206</v>
       </c>
       <c r="B430" t="s">
-        <v>1121</v>
+        <v>432</v>
       </c>
       <c r="C430">
         <v>8.3343095779418945</v>
@@ -10514,7 +10516,7 @@
         <v>130907</v>
       </c>
       <c r="B431" t="s">
-        <v>1122</v>
+        <v>472</v>
       </c>
       <c r="C431">
         <v>8.4680900573730469</v>
@@ -10528,7 +10530,7 @@
         <v>130908</v>
       </c>
       <c r="B432" t="s">
-        <v>1123</v>
+        <v>494</v>
       </c>
       <c r="C432">
         <v>8.5731697082519531</v>
@@ -10542,7 +10544,7 @@
         <v>81001</v>
       </c>
       <c r="B433" t="s">
-        <v>1124</v>
+        <v>165</v>
       </c>
       <c r="C433">
         <v>9.0411100387573242</v>
@@ -10556,7 +10558,7 @@
         <v>81002</v>
       </c>
       <c r="B434" t="s">
-        <v>1125</v>
+        <v>203</v>
       </c>
       <c r="C434">
         <v>9.0538196563720703</v>
@@ -10570,7 +10572,7 @@
         <v>81003</v>
       </c>
       <c r="B435" t="s">
-        <v>1126</v>
+        <v>413</v>
       </c>
       <c r="C435">
         <v>9.0488100051879883</v>
@@ -10584,7 +10586,7 @@
         <v>81004</v>
       </c>
       <c r="B436" t="s">
-        <v>1127</v>
+        <v>507</v>
       </c>
       <c r="C436">
         <v>9.0337696075439453</v>
@@ -10598,7 +10600,7 @@
         <v>81005</v>
       </c>
       <c r="B437" t="s">
-        <v>1128</v>
+        <v>675</v>
       </c>
       <c r="C437">
         <v>9.0315103530883789</v>
@@ -10612,7 +10614,7 @@
         <v>81006</v>
       </c>
       <c r="B438" t="s">
-        <v>1129</v>
+        <v>173</v>
       </c>
       <c r="C438">
         <v>9.0655603408813477</v>
@@ -10626,7 +10628,7 @@
         <v>81007</v>
       </c>
       <c r="B439" t="s">
-        <v>1130</v>
+        <v>202</v>
       </c>
       <c r="C439">
         <v>9.0767803192138672</v>
@@ -10640,7 +10642,7 @@
         <v>81008</v>
       </c>
       <c r="B440" t="s">
-        <v>1131</v>
+        <v>536</v>
       </c>
       <c r="C440">
         <v>9.0598697662353516</v>
@@ -10654,7 +10656,7 @@
         <v>81009</v>
       </c>
       <c r="B441" t="s">
-        <v>1132</v>
+        <v>607</v>
       </c>
       <c r="C441">
         <v>9.0696697235107422</v>
@@ -10668,7 +10670,7 @@
         <v>81101</v>
       </c>
       <c r="B442" t="s">
-        <v>1133</v>
+        <v>649</v>
       </c>
       <c r="C442">
         <v>8.7910699844360352</v>
@@ -10682,7 +10684,7 @@
         <v>81102</v>
       </c>
       <c r="B443" t="s">
-        <v>1134</v>
+        <v>538</v>
       </c>
       <c r="C443">
         <v>8.6012697219848633</v>
@@ -10696,7 +10698,7 @@
         <v>81103</v>
       </c>
       <c r="B444" t="s">
-        <v>1135</v>
+        <v>540</v>
       </c>
       <c r="C444">
         <v>8.5888900756835938</v>
@@ -10710,7 +10712,7 @@
         <v>90101</v>
       </c>
       <c r="B445" t="s">
-        <v>1136</v>
+        <v>178</v>
       </c>
       <c r="C445">
         <v>8.0360498428344727</v>
@@ -10724,7 +10726,7 @@
         <v>90102</v>
       </c>
       <c r="B446" t="s">
-        <v>1137</v>
+        <v>324</v>
       </c>
       <c r="C446">
         <v>7.9815797805786133</v>
@@ -10738,7 +10740,7 @@
         <v>90103</v>
       </c>
       <c r="B447" t="s">
-        <v>1138</v>
+        <v>436</v>
       </c>
       <c r="C447">
         <v>8.0244598388671875</v>
@@ -10752,7 +10754,7 @@
         <v>90104</v>
       </c>
       <c r="B448" t="s">
-        <v>1139</v>
+        <v>420</v>
       </c>
       <c r="C448">
         <v>7.9864301681518555</v>
@@ -10766,7 +10768,7 @@
         <v>90105</v>
       </c>
       <c r="B449" t="s">
-        <v>1140</v>
+        <v>614</v>
       </c>
       <c r="C449">
         <v>8.071009635925293</v>
@@ -10780,7 +10782,7 @@
         <v>90201</v>
       </c>
       <c r="B450" t="s">
-        <v>1141</v>
+        <v>234</v>
       </c>
       <c r="C450">
         <v>8.2982997894287109</v>
@@ -10794,7 +10796,7 @@
         <v>90202</v>
       </c>
       <c r="B451" t="s">
-        <v>1142</v>
+        <v>192</v>
       </c>
       <c r="C451">
         <v>8.4073095321655273</v>
@@ -10808,7 +10810,7 @@
         <v>90203</v>
       </c>
       <c r="B452" t="s">
-        <v>1143</v>
+        <v>283</v>
       </c>
       <c r="C452">
         <v>8.5185203552246094</v>
@@ -10822,7 +10824,7 @@
         <v>90204</v>
       </c>
       <c r="B453" t="s">
-        <v>1144</v>
+        <v>338</v>
       </c>
       <c r="C453">
         <v>8.3317098617553711</v>
@@ -10836,7 +10838,7 @@
         <v>90205</v>
       </c>
       <c r="B454" t="s">
-        <v>740</v>
+        <v>31</v>
       </c>
       <c r="C454">
         <v>8.3852396011352539</v>
@@ -10850,7 +10852,7 @@
         <v>90206</v>
       </c>
       <c r="B455" t="s">
-        <v>1121</v>
+        <v>432</v>
       </c>
       <c r="C455">
         <v>8.3343095779418945</v>
@@ -10864,7 +10866,7 @@
         <v>90207</v>
       </c>
       <c r="B456" t="s">
-        <v>1145</v>
+        <v>442</v>
       </c>
       <c r="C456">
         <v>8.2249898910522461</v>
@@ -10878,7 +10880,7 @@
         <v>90208</v>
       </c>
       <c r="B457" t="s">
-        <v>1146</v>
+        <v>446</v>
       </c>
       <c r="C457">
         <v>8.2561798095703125</v>
@@ -10892,7 +10894,7 @@
         <v>90209</v>
       </c>
       <c r="B458" t="s">
-        <v>1147</v>
+        <v>452</v>
       </c>
       <c r="C458">
         <v>8.4528303146362305</v>
@@ -10906,7 +10908,7 @@
         <v>90210</v>
       </c>
       <c r="B459" t="s">
-        <v>1148</v>
+        <v>461</v>
       </c>
       <c r="C459">
         <v>8.2389402389526367</v>
@@ -10920,7 +10922,7 @@
         <v>90211</v>
       </c>
       <c r="B460" t="s">
-        <v>1149</v>
+        <v>514</v>
       </c>
       <c r="C460">
         <v>8.3817195892333984</v>
@@ -10934,7 +10936,7 @@
         <v>90212</v>
       </c>
       <c r="B461" t="s">
-        <v>988</v>
+        <v>620</v>
       </c>
       <c r="C461">
         <v>8.4594097137451172</v>
@@ -10948,7 +10950,7 @@
         <v>90301</v>
       </c>
       <c r="B462" t="s">
-        <v>1150</v>
+        <v>244</v>
       </c>
       <c r="C462">
         <v>8.3168096542358398</v>
@@ -10962,7 +10964,7 @@
         <v>90302</v>
       </c>
       <c r="B463" t="s">
-        <v>1151</v>
+        <v>271</v>
       </c>
       <c r="C463">
         <v>8.2858800888061523</v>
@@ -10976,7 +10978,7 @@
         <v>90303</v>
       </c>
       <c r="B464" t="s">
-        <v>1152</v>
+        <v>364</v>
       </c>
       <c r="C464">
         <v>8.4187898635864258</v>
@@ -10990,7 +10992,7 @@
         <v>90304</v>
       </c>
       <c r="B465" t="s">
-        <v>1153</v>
+        <v>499</v>
       </c>
       <c r="C465">
         <v>8.4270000457763672</v>
@@ -11004,7 +11006,7 @@
         <v>90305</v>
       </c>
       <c r="B466" t="s">
-        <v>988</v>
+        <v>620</v>
       </c>
       <c r="C466">
         <v>8.3711299896240234</v>
@@ -11018,7 +11020,7 @@
         <v>90306</v>
       </c>
       <c r="B467" t="s">
-        <v>1154</v>
+        <v>624</v>
       </c>
       <c r="C467">
         <v>8.2765798568725586</v>
@@ -11032,7 +11034,7 @@
         <v>90307</v>
       </c>
       <c r="B468" t="s">
-        <v>1155</v>
+        <v>320</v>
       </c>
       <c r="C468">
         <v>8.3568000793457031</v>
@@ -11046,7 +11048,7 @@
         <v>90308</v>
       </c>
       <c r="B469" t="s">
-        <v>996</v>
+        <v>458</v>
       </c>
       <c r="C469">
         <v>8.3412199020385742</v>
@@ -11060,7 +11062,7 @@
         <v>90401</v>
       </c>
       <c r="B470" t="s">
-        <v>1156</v>
+        <v>434</v>
       </c>
       <c r="C470">
         <v>8.1446599960327148</v>
@@ -11074,7 +11076,7 @@
         <v>90402</v>
       </c>
       <c r="B471" t="s">
-        <v>1157</v>
+        <v>208</v>
       </c>
       <c r="C471">
         <v>8.21343994140625</v>
@@ -11088,7 +11090,7 @@
         <v>90403</v>
       </c>
       <c r="B472" t="s">
-        <v>1158</v>
+        <v>217</v>
       </c>
       <c r="C472">
         <v>8.1667404174804688</v>
@@ -11102,7 +11104,7 @@
         <v>90404</v>
       </c>
       <c r="B473" t="s">
-        <v>741</v>
+        <v>32</v>
       </c>
       <c r="C473">
         <v>8.0902595520019531</v>
@@ -11116,7 +11118,7 @@
         <v>90405</v>
       </c>
       <c r="B474" t="s">
-        <v>1159</v>
+        <v>615</v>
       </c>
       <c r="C474">
         <v>8.2230701446533203</v>
@@ -11130,7 +11132,7 @@
         <v>90406</v>
       </c>
       <c r="B475" t="s">
-        <v>1160</v>
+        <v>496</v>
       </c>
       <c r="C475">
         <v>8.1593599319458008</v>
@@ -11144,7 +11146,7 @@
         <v>90501</v>
       </c>
       <c r="B476" t="s">
-        <v>1161</v>
+        <v>467</v>
       </c>
       <c r="C476">
         <v>8.1341896057128906</v>
@@ -11158,7 +11160,7 @@
         <v>90502</v>
       </c>
       <c r="B477" t="s">
-        <v>1162</v>
+        <v>263</v>
       </c>
       <c r="C477">
         <v>8.1192197799682617</v>
@@ -11172,7 +11174,7 @@
         <v>90503</v>
       </c>
       <c r="B478" t="s">
-        <v>1007</v>
+        <v>299</v>
       </c>
       <c r="C478">
         <v>8.0762100219726563</v>
@@ -11186,7 +11188,7 @@
         <v>90504</v>
       </c>
       <c r="B479" t="s">
-        <v>1163</v>
+        <v>357</v>
       </c>
       <c r="C479">
         <v>7.9992198944091797</v>
@@ -11200,7 +11202,7 @@
         <v>90505</v>
       </c>
       <c r="B480" t="s">
-        <v>1164</v>
+        <v>367</v>
       </c>
       <c r="C480">
         <v>8.2261104583740234</v>
@@ -11214,7 +11216,7 @@
         <v>90506</v>
       </c>
       <c r="B481" t="s">
-        <v>959</v>
+        <v>369</v>
       </c>
       <c r="C481">
         <v>8.2211599349975586</v>
@@ -11228,7 +11230,7 @@
         <v>90507</v>
       </c>
       <c r="B482" t="s">
-        <v>1165</v>
+        <v>483</v>
       </c>
       <c r="C482">
         <v>8.0901803970336914</v>
@@ -11242,7 +11244,7 @@
         <v>90508</v>
       </c>
       <c r="B483" t="s">
-        <v>1166</v>
+        <v>561</v>
       </c>
       <c r="C483">
         <v>7.8818697929382324</v>
@@ -11256,7 +11258,7 @@
         <v>90509</v>
       </c>
       <c r="B484" t="s">
-        <v>1167</v>
+        <v>579</v>
       </c>
       <c r="C484">
         <v>8.0300798416137695</v>
@@ -11270,7 +11272,7 @@
         <v>90510</v>
       </c>
       <c r="B485" t="s">
-        <v>1168</v>
+        <v>626</v>
       </c>
       <c r="C485">
         <v>8.1990699768066406</v>
@@ -11284,7 +11286,7 @@
         <v>90511</v>
       </c>
       <c r="B486" t="s">
-        <v>1169</v>
+        <v>677</v>
       </c>
       <c r="C486">
         <v>8.3377504348754883</v>
@@ -11298,7 +11300,7 @@
         <v>90512</v>
       </c>
       <c r="B487" t="s">
-        <v>1170</v>
+        <v>688</v>
       </c>
       <c r="C487">
         <v>7.9681501388549805</v>
@@ -11312,7 +11314,7 @@
         <v>90601</v>
       </c>
       <c r="B488" t="s">
-        <v>1171</v>
+        <v>515</v>
       </c>
       <c r="C488">
         <v>7.9924502372741699</v>
@@ -11326,7 +11328,7 @@
         <v>90602</v>
       </c>
       <c r="B489" t="s">
-        <v>1172</v>
+        <v>385</v>
       </c>
       <c r="C489">
         <v>7.4652700424194336</v>
@@ -11340,7 +11342,7 @@
         <v>90603</v>
       </c>
       <c r="B490" t="s">
-        <v>1173</v>
+        <v>430</v>
       </c>
       <c r="C490">
         <v>7.9238400459289551</v>
@@ -11354,7 +11356,7 @@
         <v>90604</v>
       </c>
       <c r="B491" t="s">
-        <v>926</v>
+        <v>473</v>
       </c>
       <c r="C491">
         <v>7.760429859161377</v>
@@ -11368,7 +11370,7 @@
         <v>90605</v>
       </c>
       <c r="B492" t="s">
-        <v>1174</v>
+        <v>560</v>
       </c>
       <c r="C492">
         <v>7.9621901512145996</v>
@@ -11382,7 +11384,7 @@
         <v>90606</v>
       </c>
       <c r="B493" t="s">
-        <v>1175</v>
+        <v>258</v>
       </c>
       <c r="C493">
         <v>7.5383601188659668</v>
@@ -11396,7 +11398,7 @@
         <v>90607</v>
       </c>
       <c r="B494" t="s">
-        <v>1176</v>
+        <v>302</v>
       </c>
       <c r="C494">
         <v>7.9369401931762695</v>
@@ -11410,7 +11412,7 @@
         <v>90608</v>
       </c>
       <c r="B495" t="s">
-        <v>1177</v>
+        <v>665</v>
       </c>
       <c r="C495">
         <v>8.0235300064086914</v>
@@ -11424,7 +11426,7 @@
         <v>90701</v>
       </c>
       <c r="B496" t="s">
-        <v>1178</v>
+        <v>597</v>
       </c>
       <c r="C496">
         <v>7.9968600273132324</v>
@@ -11438,7 +11440,7 @@
         <v>90702</v>
       </c>
       <c r="B497" t="s">
-        <v>748</v>
+        <v>36</v>
       </c>
       <c r="C497">
         <v>7.8885002136230469</v>
@@ -11452,7 +11454,7 @@
         <v>90703</v>
       </c>
       <c r="B498" t="s">
-        <v>944</v>
+        <v>489</v>
       </c>
       <c r="C498">
         <v>8.0294399261474609</v>
@@ -11466,7 +11468,7 @@
         <v>90704</v>
       </c>
       <c r="B499" t="s">
-        <v>1179</v>
+        <v>668</v>
       </c>
       <c r="C499">
         <v>7.9710698127746582</v>
@@ -11480,7 +11482,7 @@
         <v>90705</v>
       </c>
       <c r="B500" t="s">
-        <v>1180</v>
+        <v>256</v>
       </c>
       <c r="C500">
         <v>7.930729866027832</v>
@@ -11494,7 +11496,7 @@
         <v>90801</v>
       </c>
       <c r="B501" t="s">
-        <v>1181</v>
+        <v>618</v>
       </c>
       <c r="C501">
         <v>8.2417097091674805</v>
@@ -11508,7 +11510,7 @@
         <v>90802</v>
       </c>
       <c r="B502" t="s">
-        <v>1182</v>
+        <v>300</v>
       </c>
       <c r="C502">
         <v>8.2154598236083984</v>
@@ -11522,7 +11524,7 @@
         <v>90803</v>
       </c>
       <c r="B503" t="s">
-        <v>1183</v>
+        <v>493</v>
       </c>
       <c r="C503">
         <v>8.3360795974731445</v>
@@ -11536,7 +11538,7 @@
         <v>90804</v>
       </c>
       <c r="B504" t="s">
-        <v>1184</v>
+        <v>589</v>
       </c>
       <c r="C504">
         <v>8.2822999954223633</v>
@@ -11550,7 +11552,7 @@
         <v>90805</v>
       </c>
       <c r="B505" t="s">
-        <v>777</v>
+        <v>53</v>
       </c>
       <c r="C505">
         <v>8.2974700927734375</v>
@@ -11564,7 +11566,7 @@
         <v>90806</v>
       </c>
       <c r="B506" t="s">
-        <v>988</v>
+        <v>620</v>
       </c>
       <c r="C506">
         <v>8.3622198104858398</v>
@@ -11578,7 +11580,7 @@
         <v>90901</v>
       </c>
       <c r="B507" t="s">
-        <v>1185</v>
+        <v>633</v>
       </c>
       <c r="C507">
         <v>8.4955997467041016</v>
@@ -11592,7 +11594,7 @@
         <v>90902</v>
       </c>
       <c r="B508" t="s">
-        <v>1186</v>
+        <v>235</v>
       </c>
       <c r="C508">
         <v>8.7149200439453125</v>
@@ -11606,7 +11608,7 @@
         <v>90903</v>
       </c>
       <c r="B509" t="s">
-        <v>1187</v>
+        <v>318</v>
       </c>
       <c r="C509">
         <v>8.545989990234375</v>
@@ -11620,7 +11622,7 @@
         <v>90904</v>
       </c>
       <c r="B510" t="s">
-        <v>1188</v>
+        <v>342</v>
       </c>
       <c r="C510">
         <v>8.443079948425293</v>
@@ -11634,7 +11636,7 @@
         <v>90905</v>
       </c>
       <c r="B511" t="s">
-        <v>1189</v>
+        <v>360</v>
       </c>
       <c r="C511">
         <v>8.5737400054931641</v>
@@ -11648,7 +11650,7 @@
         <v>90906</v>
       </c>
       <c r="B512" t="s">
-        <v>1190</v>
+        <v>384</v>
       </c>
       <c r="C512">
         <v>8.5440998077392578</v>
@@ -11662,7 +11664,7 @@
         <v>90907</v>
       </c>
       <c r="B513" t="s">
-        <v>1191</v>
+        <v>600</v>
       </c>
       <c r="C513">
         <v>8.650050163269043</v>
@@ -11676,7 +11678,7 @@
         <v>90908</v>
       </c>
       <c r="B514" t="s">
-        <v>1192</v>
+        <v>606</v>
       </c>
       <c r="C514">
         <v>8.4515895843505859</v>
@@ -11690,7 +11692,7 @@
         <v>91001</v>
       </c>
       <c r="B515" t="s">
-        <v>1193</v>
+        <v>636</v>
       </c>
       <c r="C515">
         <v>8.0822200775146484</v>
@@ -11704,7 +11706,7 @@
         <v>91002</v>
       </c>
       <c r="B516" t="s">
-        <v>994</v>
+        <v>421</v>
       </c>
       <c r="C516">
         <v>7.9924201965332031</v>
@@ -11718,7 +11720,7 @@
         <v>91003</v>
       </c>
       <c r="B517" t="s">
-        <v>1194</v>
+        <v>439</v>
       </c>
       <c r="C517">
         <v>8.1894702911376953</v>
@@ -11732,7 +11734,7 @@
         <v>91004</v>
       </c>
       <c r="B518" t="s">
-        <v>1195</v>
+        <v>443</v>
       </c>
       <c r="C518">
         <v>8.149749755859375</v>
@@ -11746,7 +11748,7 @@
         <v>91005</v>
       </c>
       <c r="B519" t="s">
-        <v>1196</v>
+        <v>565</v>
       </c>
       <c r="C519">
         <v>7.8977499008178711</v>
@@ -11760,7 +11762,7 @@
         <v>91006</v>
       </c>
       <c r="B520" t="s">
-        <v>1197</v>
+        <v>630</v>
       </c>
       <c r="C520">
         <v>8.1366395950317383</v>
@@ -11774,7 +11776,7 @@
         <v>91007</v>
       </c>
       <c r="B521" t="s">
-        <v>1198</v>
+        <v>240</v>
       </c>
       <c r="C521">
         <v>8.1752099990844727</v>
@@ -11788,7 +11790,7 @@
         <v>91008</v>
       </c>
       <c r="B522" t="s">
-        <v>857</v>
+        <v>104</v>
       </c>
       <c r="C522">
         <v>8.0906000137329102</v>
@@ -11802,7 +11804,7 @@
         <v>91009</v>
       </c>
       <c r="B523" t="s">
-        <v>1199</v>
+        <v>251</v>
       </c>
       <c r="C523">
         <v>8.1008901596069336</v>
@@ -11816,7 +11818,7 @@
         <v>91010</v>
       </c>
       <c r="B524" t="s">
-        <v>1200</v>
+        <v>317</v>
       </c>
       <c r="C524">
         <v>8.0519199371337891</v>
@@ -11830,7 +11832,7 @@
         <v>91011</v>
       </c>
       <c r="B525" t="s">
-        <v>1168</v>
+        <v>626</v>
       </c>
       <c r="C525">
         <v>8.114649772644043</v>
@@ -11844,7 +11846,7 @@
         <v>91012</v>
       </c>
       <c r="B526" t="s">
-        <v>1201</v>
+        <v>667</v>
       </c>
       <c r="C526">
         <v>8.1550703048706055</v>
@@ -11858,7 +11860,7 @@
         <v>91101</v>
       </c>
       <c r="B527" t="s">
-        <v>1202</v>
+        <v>645</v>
       </c>
       <c r="C527">
         <v>7.973909854888916</v>
@@ -11872,7 +11874,7 @@
         <v>91102</v>
       </c>
       <c r="B528" t="s">
-        <v>1005</v>
+        <v>185</v>
       </c>
       <c r="C528">
         <v>7.7676000595092773</v>
@@ -11886,7 +11888,7 @@
         <v>91103</v>
       </c>
       <c r="B529" t="s">
-        <v>1203</v>
+        <v>233</v>
       </c>
       <c r="C529">
         <v>7.9116997718811035</v>
@@ -11900,7 +11902,7 @@
         <v>91104</v>
       </c>
       <c r="B530" t="s">
-        <v>1204</v>
+        <v>255</v>
       </c>
       <c r="C530">
         <v>7.8531599044799805</v>
@@ -11914,7 +11916,7 @@
         <v>91105</v>
       </c>
       <c r="B531" t="s">
-        <v>1205</v>
+        <v>356</v>
       </c>
       <c r="C531">
         <v>8.0174198150634766</v>
@@ -11928,7 +11930,7 @@
         <v>91106</v>
       </c>
       <c r="B532" t="s">
-        <v>806</v>
+        <v>72</v>
       </c>
       <c r="C532">
         <v>7.8233098983764648</v>
@@ -11942,7 +11944,7 @@
         <v>91107</v>
       </c>
       <c r="B533" t="s">
-        <v>1206</v>
+        <v>445</v>
       </c>
       <c r="C533">
         <v>7.8954100608825684</v>
@@ -11956,7 +11958,7 @@
         <v>91108</v>
       </c>
       <c r="B534" t="s">
-        <v>1207</v>
+        <v>584</v>
       </c>
       <c r="C534">
         <v>8.0344600677490234</v>
@@ -11970,7 +11972,7 @@
         <v>91109</v>
       </c>
       <c r="B535" t="s">
-        <v>761</v>
+        <v>44</v>
       </c>
       <c r="C535">
         <v>7.7116098403930664</v>
@@ -11984,7 +11986,7 @@
         <v>91110</v>
       </c>
       <c r="B536" t="s">
-        <v>1208</v>
+        <v>603</v>
       </c>
       <c r="C536">
         <v>8.0908298492431641</v>
@@ -11998,7 +12000,7 @@
         <v>91201</v>
       </c>
       <c r="B537" t="s">
-        <v>1209</v>
+        <v>478</v>
       </c>
       <c r="C537">
         <v>7.6130399703979492</v>
@@ -12012,7 +12014,7 @@
         <v>91202</v>
       </c>
       <c r="B538" t="s">
-        <v>1210</v>
+        <v>170</v>
       </c>
       <c r="C538">
         <v>7.3698601722717285</v>
@@ -12026,7 +12028,7 @@
         <v>91203</v>
       </c>
       <c r="B539" t="s">
-        <v>1027</v>
+        <v>326</v>
       </c>
       <c r="C539">
         <v>7.2744598388671875</v>
@@ -12040,7 +12042,7 @@
         <v>91204</v>
       </c>
       <c r="B540" t="s">
-        <v>1211</v>
+        <v>587</v>
       </c>
       <c r="C540">
         <v>7.4839701652526855</v>
@@ -12054,7 +12056,7 @@
         <v>91205</v>
       </c>
       <c r="B541" t="s">
-        <v>1212</v>
+        <v>651</v>
       </c>
       <c r="C541">
         <v>7.7168397903442383</v>
@@ -12068,7 +12070,7 @@
         <v>100101</v>
       </c>
       <c r="B542" t="s">
-        <v>1213</v>
+        <v>520</v>
       </c>
       <c r="C542">
         <v>9.3903999328613281</v>
@@ -12082,7 +12084,7 @@
         <v>100102</v>
       </c>
       <c r="B543" t="s">
-        <v>1214</v>
+        <v>147</v>
       </c>
       <c r="C543">
         <v>9.2218904495239258</v>
@@ -12096,7 +12098,7 @@
         <v>100103</v>
       </c>
       <c r="B544" t="s">
-        <v>1215</v>
+        <v>576</v>
       </c>
       <c r="C544">
         <v>8.615839958190918</v>
@@ -12110,7 +12112,7 @@
         <v>100104</v>
       </c>
       <c r="B545" t="s">
-        <v>1216</v>
+        <v>661</v>
       </c>
       <c r="C545">
         <v>8.8618402481079102</v>
@@ -12124,7 +12126,7 @@
         <v>110101</v>
       </c>
       <c r="B546" t="s">
-        <v>1217</v>
+        <v>292</v>
       </c>
       <c r="C546">
         <v>8.1568098068237305</v>
@@ -12138,7 +12140,7 @@
         <v>110102</v>
       </c>
       <c r="B547" t="s">
-        <v>1218</v>
+        <v>454</v>
       </c>
       <c r="C547">
         <v>8.5474700927734375</v>
@@ -12152,7 +12154,7 @@
         <v>110103</v>
       </c>
       <c r="B548" t="s">
-        <v>1219</v>
+        <v>503</v>
       </c>
       <c r="C548">
         <v>8.3226995468139648</v>
@@ -12166,7 +12168,7 @@
         <v>110201</v>
       </c>
       <c r="B549" t="s">
-        <v>1220</v>
+        <v>601</v>
       </c>
       <c r="C549">
         <v>7.9122800827026367</v>
@@ -12180,7 +12182,7 @@
         <v>110202</v>
       </c>
       <c r="B550" t="s">
-        <v>1221</v>
+        <v>411</v>
       </c>
       <c r="C550">
         <v>7.782710075378418</v>
@@ -12194,7 +12196,7 @@
         <v>120101</v>
       </c>
       <c r="B551" t="s">
-        <v>1222</v>
+        <v>644</v>
       </c>
       <c r="C551">
         <v>8.5435695648193359</v>
@@ -12208,7 +12210,7 @@
         <v>120102</v>
       </c>
       <c r="B552" t="s">
-        <v>1223</v>
+        <v>210</v>
       </c>
       <c r="C552">
         <v>8.5894098281860352</v>
@@ -12222,7 +12224,7 @@
         <v>120103</v>
       </c>
       <c r="B553" t="s">
-        <v>1224</v>
+        <v>236</v>
       </c>
       <c r="C553">
         <v>8.3945598602294922</v>
@@ -12236,7 +12238,7 @@
         <v>120104</v>
       </c>
       <c r="B554" t="s">
-        <v>1225</v>
+        <v>261</v>
       </c>
       <c r="C554">
         <v>8.4693603515625</v>
@@ -12250,7 +12252,7 @@
         <v>120105</v>
       </c>
       <c r="B555" t="s">
-        <v>1226</v>
+        <v>265</v>
       </c>
       <c r="C555">
         <v>8.4432296752929688</v>
@@ -12264,7 +12266,7 @@
         <v>120106</v>
       </c>
       <c r="B556" t="s">
-        <v>1227</v>
+        <v>374</v>
       </c>
       <c r="C556">
         <v>8.6045398712158203</v>
@@ -12278,7 +12280,7 @@
         <v>120107</v>
       </c>
       <c r="B557" t="s">
-        <v>1228</v>
+        <v>518</v>
       </c>
       <c r="C557">
         <v>8.3690204620361328</v>
@@ -12292,7 +12294,7 @@
         <v>120108</v>
       </c>
       <c r="B558" t="s">
-        <v>1229</v>
+        <v>522</v>
       </c>
       <c r="C558">
         <v>8.5634403228759766</v>
@@ -12306,7 +12308,7 @@
         <v>120201</v>
       </c>
       <c r="B559" t="s">
-        <v>1230</v>
+        <v>403</v>
       </c>
       <c r="C559">
         <v>8.3938999176025391</v>
@@ -12320,7 +12322,7 @@
         <v>120202</v>
       </c>
       <c r="B560" t="s">
-        <v>1231</v>
+        <v>252</v>
       </c>
       <c r="C560">
         <v>8.5583600997924805</v>
@@ -12334,7 +12336,7 @@
         <v>120203</v>
       </c>
       <c r="B561" t="s">
-        <v>1232</v>
+        <v>399</v>
       </c>
       <c r="C561">
         <v>8.3419904708862305</v>
@@ -12348,7 +12350,7 @@
         <v>120204</v>
       </c>
       <c r="B562" t="s">
-        <v>1233</v>
+        <v>400</v>
       </c>
       <c r="C562">
         <v>8.4567899703979492</v>
@@ -12362,7 +12364,7 @@
         <v>120205</v>
       </c>
       <c r="B563" t="s">
-        <v>1234</v>
+        <v>401</v>
       </c>
       <c r="C563">
         <v>8.3995504379272461</v>
@@ -12376,7 +12378,7 @@
         <v>120206</v>
       </c>
       <c r="B564" t="s">
-        <v>1235</v>
+        <v>402</v>
       </c>
       <c r="C564">
         <v>8.3572702407836914</v>
@@ -12390,7 +12392,7 @@
         <v>120207</v>
       </c>
       <c r="B565" t="s">
-        <v>1236</v>
+        <v>583</v>
       </c>
       <c r="C565">
         <v>8.3495101928710938</v>
@@ -12404,7 +12406,7 @@
         <v>120208</v>
       </c>
       <c r="B566" t="s">
-        <v>1237</v>
+        <v>611</v>
       </c>
       <c r="C566">
         <v>8.3572702407836914</v>
@@ -12418,7 +12420,7 @@
         <v>120301</v>
       </c>
       <c r="B567" t="s">
-        <v>1238</v>
+        <v>279</v>
       </c>
       <c r="C567">
         <v>8.3790998458862305</v>
@@ -12432,7 +12434,7 @@
         <v>120302</v>
       </c>
       <c r="B568" t="s">
-        <v>1239</v>
+        <v>157</v>
       </c>
       <c r="C568">
         <v>8.2994499206542969</v>
@@ -12446,7 +12448,7 @@
         <v>120303</v>
       </c>
       <c r="B569" t="s">
-        <v>1240</v>
+        <v>191</v>
       </c>
       <c r="C569">
         <v>8.2470998764038086</v>
@@ -12460,7 +12462,7 @@
         <v>120304</v>
       </c>
       <c r="B570" t="s">
-        <v>1241</v>
+        <v>262</v>
       </c>
       <c r="C570">
         <v>8.3300304412841797</v>
@@ -12474,7 +12476,7 @@
         <v>120305</v>
       </c>
       <c r="B571" t="s">
-        <v>1242</v>
+        <v>272</v>
       </c>
       <c r="C571">
         <v>8.3379898071289063</v>
@@ -12488,7 +12490,7 @@
         <v>120306</v>
       </c>
       <c r="B572" t="s">
-        <v>1243</v>
+        <v>418</v>
       </c>
       <c r="C572">
         <v>8.5417804718017578</v>
@@ -12502,7 +12504,7 @@
         <v>120307</v>
       </c>
       <c r="B573" t="s">
-        <v>1244</v>
+        <v>504</v>
       </c>
       <c r="C573">
         <v>8.3744497299194336</v>
@@ -12516,7 +12518,7 @@
         <v>120308</v>
       </c>
       <c r="B574" t="s">
-        <v>1245</v>
+        <v>523</v>
       </c>
       <c r="C574">
         <v>8.295689582824707</v>
@@ -12530,7 +12532,7 @@
         <v>120309</v>
       </c>
       <c r="B575" t="s">
-        <v>986</v>
+        <v>555</v>
       </c>
       <c r="C575">
         <v>8.4893102645874023</v>
@@ -12544,7 +12546,7 @@
         <v>120310</v>
       </c>
       <c r="B576" t="s">
-        <v>1246</v>
+        <v>605</v>
       </c>
       <c r="C576">
         <v>8.4993801116943359</v>
@@ -12558,7 +12560,7 @@
         <v>120311</v>
       </c>
       <c r="B577" t="s">
-        <v>1247</v>
+        <v>642</v>
       </c>
       <c r="C577">
         <v>8.4100704193115234</v>
@@ -12572,7 +12574,7 @@
         <v>120312</v>
       </c>
       <c r="B578" t="s">
-        <v>1248</v>
+        <v>664</v>
       </c>
       <c r="C578">
         <v>8.3135204315185547</v>
@@ -12586,7 +12588,7 @@
         <v>120401</v>
       </c>
       <c r="B579" t="s">
-        <v>1249</v>
+        <v>266</v>
       </c>
       <c r="C579">
         <v>8.3108596801757813</v>
@@ -12600,7 +12602,7 @@
         <v>120402</v>
       </c>
       <c r="B580" t="s">
-        <v>1250</v>
+        <v>398</v>
       </c>
       <c r="C580">
         <v>8.4245500564575195</v>
@@ -12614,7 +12616,7 @@
         <v>120403</v>
       </c>
       <c r="B581" t="s">
-        <v>1251</v>
+        <v>409</v>
       </c>
       <c r="C581">
         <v>8.4939699172973633</v>
@@ -12628,7 +12630,7 @@
         <v>120404</v>
       </c>
       <c r="B582" t="s">
-        <v>1252</v>
+        <v>456</v>
       </c>
       <c r="C582">
         <v>8.2817602157592773</v>
@@ -12642,7 +12644,7 @@
         <v>120405</v>
       </c>
       <c r="B583" t="s">
-        <v>1253</v>
+        <v>648</v>
       </c>
       <c r="C583">
         <v>8.3604602813720703</v>
@@ -12656,7 +12658,7 @@
         <v>120501</v>
       </c>
       <c r="B584" t="s">
-        <v>1254</v>
+        <v>223</v>
       </c>
       <c r="C584">
         <v>8.4523601531982422</v>
@@ -12670,7 +12672,7 @@
         <v>120502</v>
       </c>
       <c r="B585" t="s">
-        <v>1255</v>
+        <v>139</v>
       </c>
       <c r="C585">
         <v>8.5152101516723633</v>
@@ -12684,7 +12686,7 @@
         <v>120503</v>
       </c>
       <c r="B586" t="s">
-        <v>1256</v>
+        <v>159</v>
       </c>
       <c r="C586">
         <v>8.2639799118041992</v>
@@ -12698,7 +12700,7 @@
         <v>120504</v>
       </c>
       <c r="B587" t="s">
-        <v>1257</v>
+        <v>270</v>
       </c>
       <c r="C587">
         <v>8.1643104553222656</v>
@@ -12712,7 +12714,7 @@
         <v>120505</v>
       </c>
       <c r="B588" t="s">
-        <v>1258</v>
+        <v>321</v>
       </c>
       <c r="C588">
         <v>8.3455801010131836</v>
@@ -12726,7 +12728,7 @@
         <v>120506</v>
       </c>
       <c r="B589" t="s">
-        <v>1259</v>
+        <v>361</v>
       </c>
       <c r="C589">
         <v>8.4879398345947266</v>
@@ -12740,7 +12742,7 @@
         <v>120507</v>
       </c>
       <c r="B590" t="s">
-        <v>1260</v>
+        <v>365</v>
       </c>
       <c r="C590">
         <v>8.2315397262573242</v>
@@ -12754,7 +12756,7 @@
         <v>120508</v>
       </c>
       <c r="B591" t="s">
-        <v>1119</v>
+        <v>393</v>
       </c>
       <c r="C591">
         <v>8.5472602844238281</v>
@@ -12768,7 +12770,7 @@
         <v>120509</v>
       </c>
       <c r="B592" t="s">
-        <v>1261</v>
+        <v>394</v>
       </c>
       <c r="C592">
         <v>8.5121097564697266</v>
@@ -12782,7 +12784,7 @@
         <v>120601</v>
       </c>
       <c r="B593" t="s">
-        <v>1262</v>
+        <v>206</v>
       </c>
       <c r="C593">
         <v>8.9176397323608398</v>
@@ -12796,7 +12798,7 @@
         <v>120604</v>
       </c>
       <c r="B594" t="s">
-        <v>1265</v>
+        <v>397</v>
       </c>
       <c r="C594">
         <v>8.6907100677490234</v>
@@ -12810,7 +12812,7 @@
         <v>120605</v>
       </c>
       <c r="B595" t="s">
-        <v>1266</v>
+        <v>207</v>
       </c>
       <c r="C595">
         <v>8.8327102661132813</v>
@@ -12824,7 +12826,7 @@
         <v>120606</v>
       </c>
       <c r="B596" t="s">
-        <v>1267</v>
+        <v>517</v>
       </c>
       <c r="C596">
         <v>8.5613698959350586</v>
@@ -12838,7 +12840,7 @@
         <v>120607</v>
       </c>
       <c r="B597" t="s">
-        <v>1268</v>
+        <v>559</v>
       </c>
       <c r="C597">
         <v>8.5945301055908203</v>
@@ -12852,7 +12854,7 @@
         <v>120804</v>
       </c>
       <c r="B598" t="s">
-        <v>1270</v>
+        <v>501</v>
       </c>
       <c r="C598">
         <v>8.8656597137451172</v>
@@ -12866,7 +12868,7 @@
         <v>120701</v>
       </c>
       <c r="B599" t="s">
-        <v>1271</v>
+        <v>184</v>
       </c>
       <c r="C599">
         <v>9.1592397689819336</v>
@@ -12880,7 +12882,7 @@
         <v>120702</v>
       </c>
       <c r="B600" t="s">
-        <v>1272</v>
+        <v>183</v>
       </c>
       <c r="C600">
         <v>9.0704402923583984</v>
@@ -12894,7 +12896,7 @@
         <v>120705</v>
       </c>
       <c r="B601" t="s">
-        <v>1275</v>
+        <v>594</v>
       </c>
       <c r="C601">
         <v>8.7722702026367188</v>
@@ -12908,7 +12910,7 @@
         <v>120706</v>
       </c>
       <c r="B602" t="s">
-        <v>1276</v>
+        <v>653</v>
       </c>
       <c r="C602">
         <v>9.0221700668334961</v>
@@ -12922,7 +12924,7 @@
         <v>10401</v>
       </c>
       <c r="B603" t="s">
-        <v>706</v>
+        <v>152</v>
       </c>
       <c r="C603">
         <v>9.3201103210449219</v>
@@ -12936,7 +12938,7 @@
         <v>10406</v>
       </c>
       <c r="B604" t="s">
-        <v>709</v>
+        <v>671</v>
       </c>
       <c r="C604">
         <v>9.0141496658325195</v>
@@ -12950,7 +12952,7 @@
         <v>10404</v>
       </c>
       <c r="B605" t="s">
-        <v>715</v>
+        <v>519</v>
       </c>
       <c r="C605">
         <v>9.0658102035522461</v>
@@ -12964,7 +12966,7 @@
         <v>10405</v>
       </c>
       <c r="B606" t="s">
-        <v>716</v>
+        <v>670</v>
       </c>
       <c r="C606">
         <v>9.2189998626708984</v>
@@ -12978,7 +12980,7 @@
         <v>30601</v>
       </c>
       <c r="B607" t="s">
-        <v>790</v>
+        <v>621</v>
       </c>
       <c r="C607">
         <v>8.8728303909301758</v>
@@ -12992,7 +12994,7 @@
         <v>41401</v>
       </c>
       <c r="B608" t="s">
-        <v>840</v>
+        <v>684</v>
       </c>
       <c r="C608">
         <v>8.7320098876953125</v>
@@ -13006,7 +13008,7 @@
         <v>50307</v>
       </c>
       <c r="B609" t="s">
-        <v>898</v>
+        <v>595</v>
       </c>
       <c r="C609">
         <v>8.5510997772216797</v>
@@ -13020,7 +13022,7 @@
         <v>50308</v>
       </c>
       <c r="B610" t="s">
-        <v>899</v>
+        <v>599</v>
       </c>
       <c r="C610">
         <v>8.3624601364135742</v>
@@ -13034,7 +13036,7 @@
         <v>50313</v>
       </c>
       <c r="B611" t="s">
-        <v>904</v>
+        <v>142</v>
       </c>
       <c r="C611">
         <v>8.8349599838256836</v>
@@ -13048,7 +13050,7 @@
         <v>50314</v>
       </c>
       <c r="B612" t="s">
-        <v>905</v>
+        <v>305</v>
       </c>
       <c r="C612">
         <v>8.5576601028442383</v>
@@ -13062,7 +13064,7 @@
         <v>50315</v>
       </c>
       <c r="B613" t="s">
-        <v>906</v>
+        <v>596</v>
       </c>
       <c r="C613">
         <v>8.7504501342773438</v>
@@ -13076,7 +13078,7 @@
         <v>50316</v>
       </c>
       <c r="B614" t="s">
-        <v>907</v>
+        <v>633</v>
       </c>
       <c r="C614">
         <v>8.7053604125976563</v>
@@ -13090,7 +13092,7 @@
         <v>130101</v>
       </c>
       <c r="B615" t="s">
-        <v>1034</v>
+        <v>175</v>
       </c>
       <c r="C615">
         <v>8.9637603759765625</v>
@@ -13104,7 +13106,7 @@
         <v>130102</v>
       </c>
       <c r="B616" t="s">
-        <v>1035</v>
+        <v>414</v>
       </c>
       <c r="C616">
         <v>8.9405603408813477</v>
@@ -13118,7 +13120,7 @@
         <v>130305</v>
       </c>
       <c r="B617" t="s">
-        <v>1051</v>
+        <v>290</v>
       </c>
       <c r="C617">
         <v>8.932499885559082</v>
@@ -13132,7 +13134,7 @@
         <v>130306</v>
       </c>
       <c r="B618" t="s">
-        <v>1052</v>
+        <v>291</v>
       </c>
       <c r="C618">
         <v>8.7761402130126953</v>
@@ -13146,7 +13148,7 @@
         <v>130310</v>
       </c>
       <c r="B619" t="s">
-        <v>1055</v>
+        <v>474</v>
       </c>
       <c r="C619">
         <v>8.7509098052978516</v>
@@ -13160,7 +13162,7 @@
         <v>130405</v>
       </c>
       <c r="B620" t="s">
-        <v>1061</v>
+        <v>278</v>
       </c>
       <c r="C620">
         <v>8.6730203628540039</v>
@@ -13174,7 +13176,7 @@
         <v>130406</v>
       </c>
       <c r="B621" t="s">
-        <v>1062</v>
+        <v>351</v>
       </c>
       <c r="C621">
         <v>8.6085700988769531</v>
@@ -13188,7 +13190,7 @@
         <v>130411</v>
       </c>
       <c r="B622" t="s">
-        <v>1067</v>
+        <v>646</v>
       </c>
       <c r="C622">
         <v>8.6546001434326172</v>
@@ -13202,7 +13204,7 @@
         <v>130702</v>
       </c>
       <c r="B623" t="s">
-        <v>1082</v>
+        <v>197</v>
       </c>
       <c r="C623">
         <v>8.8942604064941406</v>
@@ -13216,7 +13218,7 @@
         <v>130713</v>
       </c>
       <c r="B624" t="s">
-        <v>1092</v>
+        <v>492</v>
       </c>
       <c r="C624">
         <v>8.8458995819091797</v>
@@ -13230,7 +13232,7 @@
         <v>130715</v>
       </c>
       <c r="B625" t="s">
-        <v>1094</v>
+        <v>533</v>
       </c>
       <c r="C625">
         <v>8.8843498229980469</v>
@@ -13244,7 +13246,7 @@
         <v>130909</v>
       </c>
       <c r="B626" t="s">
-        <v>988</v>
+        <v>620</v>
       </c>
       <c r="C626">
         <v>8.5331096649169922</v>
@@ -13258,7 +13260,7 @@
         <v>120802</v>
       </c>
       <c r="B627" t="s">
-        <v>1263</v>
+        <v>224</v>
       </c>
       <c r="C627">
         <v>8.8467798233032227</v>
@@ -13272,7 +13274,7 @@
         <v>120803</v>
       </c>
       <c r="B628" t="s">
-        <v>1264</v>
+        <v>396</v>
       </c>
       <c r="C628">
         <v>8.7610101699829102</v>
@@ -13286,7 +13288,7 @@
         <v>120805</v>
       </c>
       <c r="B629" t="s">
-        <v>1269</v>
+        <v>660</v>
       </c>
       <c r="C629">
         <v>9.0009603500366211</v>
@@ -13300,7 +13302,7 @@
         <v>90902</v>
       </c>
       <c r="B630" t="s">
-        <v>1273</v>
+        <v>235</v>
       </c>
       <c r="C630">
         <v>8.7149200439453125</v>
@@ -13314,7 +13316,7 @@
         <v>120903</v>
       </c>
       <c r="B631" t="s">
-        <v>1274</v>
+        <v>484</v>
       </c>
       <c r="C631">
         <v>8.6509199142456055</v>
@@ -13328,7 +13330,7 @@
         <v>120905</v>
       </c>
       <c r="B632" t="s">
-        <v>1277</v>
+        <v>669</v>
       </c>
       <c r="C632">
         <v>8.5742502212524414</v>
@@ -51100,8 +51102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FC4587-0679-4972-AD5F-89C3751A2066}">
   <dimension ref="A1:G679"/>
   <sheetViews>
-    <sheetView topLeftCell="A642" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+    <sheetView topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="G423" sqref="G423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57660,7 +57662,7 @@
         <v>80501</v>
       </c>
       <c r="B386" t="s">
-        <v>690</v>
+        <v>1287</v>
       </c>
       <c r="C386">
         <v>24952</v>
